--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -205,7 +205,7 @@
     </comment>
     <comment authorId="0" ref="B32" shapeId="0">
       <text>
-        <t>Total unit power</t>
+        <t>Total unit power at design point</t>
       </text>
     </comment>
     <comment authorId="0" ref="B33" shapeId="0">
@@ -235,7 +235,7 @@
     </comment>
     <comment authorId="0" ref="B38" shapeId="0">
       <text>
-        <t>Pressure drop across the evaporator at the full load rating condition</t>
+        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
       </text>
     </comment>
     <comment authorId="0" ref="B39" shapeId="0">
@@ -1054,7 +1054,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_net_refrigerating_capacity</t>
+          <t xml:space="preserve">                net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1062,16 +1062,12 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_input_power</t>
+          <t xml:space="preserve">                input_power</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1079,16 +1075,12 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_COP</t>
+          <t xml:space="preserve">                COP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1096,16 +1088,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_part_load_value</t>
+          <t xml:space="preserve">                part_load_value</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1113,16 +1101,12 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">                evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1130,16 +1114,12 @@
           <t>m3/s</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">                evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1147,16 +1127,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">                evaporator_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1164,16 +1140,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">                evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1181,16 +1153,12 @@
           <t>Pa</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">                condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1198,16 +1166,12 @@
           <t>m3/s</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">                condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1215,16 +1179,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">                condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1232,16 +1192,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">                design_condenser_liquid_dfferential_pressure</t>
+          <t xml:space="preserve">                condenser_liquid_dfferential_pressure</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1249,11 +1205,7 @@
           <t>Pa</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
@@ -1534,7 +1486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,1346 +1654,6 @@
       <c r="N4" t="inlineStr">
         <is>
           <t>W</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>e</t>
         </is>
       </c>
     </row>
@@ -3057,7 +1669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,90 +1720,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>o</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>w</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -90,220 +90,225 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <t>Name of the manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <t>Version of the software used to generate the performance map</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>Model number for this chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <t>Unit nominal voltage</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <t>Unit nominal frequency</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <t>Name and version of the testing or certification standard under which the chiller is rated.</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+    <comment authorId="0" ref="B25" shapeId="0">
       <text>
         <t>Type of electrical motor drive</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment authorId="0" ref="B26" shapeId="0">
       <text>
         <t>Source of the liquid properties data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Type of refrigerant</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
       <text>
         <t>Indicates if a hot-gas bypass valve is installed on the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
-      <text>
-        <t>certification reference number</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B30" shapeId="0">
       <text>
+        <t>Certification reference number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
         <t>Version</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
       <text>
         <t>Unit rated refrigeration capacity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
+    <comment authorId="0" ref="B33" shapeId="0">
       <text>
         <t>Total unit power at design point</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
+    <comment authorId="0" ref="B34" shapeId="0">
       <text>
         <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
+    <comment authorId="0" ref="B35" shapeId="0">
       <text>
         <t>Rated part load efficiency over an integrated load profile</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Chilled liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
+    <comment authorId="0" ref="B37" shapeId="0">
       <text>
         <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
+    <comment authorId="0" ref="B38" shapeId="0">
       <text>
         <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
+    <comment authorId="0" ref="B39" shapeId="0">
       <text>
         <t>Pressure drop across the evaporator at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
+    <comment authorId="0" ref="B40" shapeId="0">
       <text>
         <t>Condenser liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
+    <comment authorId="0" ref="B41" shapeId="0">
       <text>
         <t>Entering condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41" shapeId="0">
+    <comment authorId="0" ref="B42" shapeId="0">
       <text>
         <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42" shapeId="0">
+    <comment authorId="0" ref="B43" shapeId="0">
       <text>
         <t>Pressure drop across the condenser at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43" shapeId="0">
+    <comment authorId="0" ref="B44" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A45" shapeId="0">
+    <comment authorId="0" ref="A46" shapeId="0">
       <text>
         <t>Type of liquid in evaporator</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47" shapeId="0">
+    <comment authorId="0" ref="B48" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A48" shapeId="0">
+    <comment authorId="0" ref="A49" shapeId="0">
       <text>
         <t>Type of liquid in evaporator</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B50" shapeId="0">
+    <comment authorId="0" ref="B51" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B51" shapeId="0">
+    <comment authorId="0" ref="B52" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B52" shapeId="0">
+    <comment authorId="0" ref="B53" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B53" shapeId="0">
+    <comment authorId="0" ref="B54" shapeId="0">
       <text>
         <t>Maximum unit power input</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A54" shapeId="0">
+    <comment authorId="0" ref="A55" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A55" shapeId="0">
+    <comment authorId="0" ref="A56" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -721,7 +726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,12 +787,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -799,12 +799,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0001</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -816,7 +816,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0001</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -828,7 +833,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -840,31 +845,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -872,35 +889,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.description</t>
+          <t>ASHRAE205.RS_instance.RS0001</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -908,65 +925,60 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0001.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0001.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_software_version</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
+          <t xml:space="preserve">                manufacturer</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                manufacturer_software_version</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                nominal_voltage</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+          <t xml:space="preserve">                model_number</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                nominal_frequency</t>
+          <t xml:space="preserve">                nominal_voltage</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hz</t>
+          <t>V</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -974,7 +986,12 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                tolerance_standard</t>
+          <t xml:space="preserve">                nominal_frequency</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Hz</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
@@ -982,7 +999,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_type</t>
+          <t xml:space="preserve">                tolerance_standard</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
@@ -990,7 +1007,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                speed_control_type</t>
+          <t xml:space="preserve">                compressor_type</t>
         </is>
       </c>
       <c r="E24" s="3" t="n"/>
@@ -998,7 +1015,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                liquid_data_source</t>
+          <t xml:space="preserve">                speed_control_type</t>
         </is>
       </c>
       <c r="E25" s="3" t="n"/>
@@ -1006,7 +1023,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
+          <t xml:space="preserve">                liquid_data_source</t>
         </is>
       </c>
       <c r="E26" s="3" t="n"/>
@@ -1014,35 +1031,31 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
+          <t xml:space="preserve">                refrigerant_type</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
           <t xml:space="preserve">                hotgas_bypass_installed</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="E28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0001.description.rating_AHRI</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                certification_reference_number</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                standard_rating_version</t>
+          <t xml:space="preserve">                certification_reference_number</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1054,20 +1067,19 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                net_refrigerating_capacity</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="n"/>
+          <t xml:space="preserve">                standard_rating_version</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                input_power</t>
+          <t xml:space="preserve">                net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1075,25 +1087,33 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                COP</t>
+          <t xml:space="preserve">                input_power</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="n"/>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                part_load_value</t>
+          <t xml:space="preserve">                COP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1101,38 +1121,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n"/>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">                part_load_value</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">                evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="n"/>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">                evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1140,51 +1172,67 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n"/>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">                evaporator_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="n"/>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">                evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="n"/>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">                condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="n"/>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">                condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1192,37 +1240,50 @@
           <t>K</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n"/>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_dfferential_pressure</t>
+          <t xml:space="preserve">                condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="n"/>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
+          <t xml:space="preserve">                condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
           <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -1234,7 +1295,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type</t>
+          <t>ASHRAE205.RS_instance.RS0001.performance</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1246,53 +1307,57 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>$liquid_components</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" t="inlineStr">
+      <c r="E47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">                concentration_type</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type.liquid_components</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>$liquid_components0</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="n"/>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                concentration_type</t>
         </is>
       </c>
       <c r="E50" s="3" t="n"/>
@@ -1300,29 +1365,20 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">            evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>m3-K/W</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                concentration_type</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">            condenser_fouling_factor</t>
+          <t xml:space="preserve">            evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>m3-K/W</t>
+          <t>m2-K/W</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -1334,68 +1390,88 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
+          <t xml:space="preserve">            condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
           <t xml:space="preserve">            unit_power_limit</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_standby</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"ConstantSpeed,VariableSpeed"</formula1>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+      <formula1>"CONSTANT_SPEED,VARIABLE_SPEED"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
       <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -8,10 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="RS0001" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="liquid_components" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="part_load_rating_points" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="part_load_rating_points0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="liquid_components" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="liquid_components0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,177 +140,302 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A16" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the manufacturer</t>
+        <t>Version of the software used to generate the performance map</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Version of the software used to generate the performance map</t>
+        <t>Model number for this chiller</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Model number for this chiller</t>
+        <t>Unit nominal voltage</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Unit nominal voltage</t>
+        <t>Unit nominal frequency</t>
       </text>
     </comment>
     <comment authorId="0" ref="B22" shapeId="0">
       <text>
-        <t>Unit nominal frequency</t>
+        <t>Name and version of the testing or certification standard under which the chiller is rated.</t>
       </text>
     </comment>
     <comment authorId="0" ref="B23" shapeId="0">
       <text>
-        <t>Name and version of the testing or certification standard under which the chiller is rated.</t>
+        <t>Type of compressor</t>
       </text>
     </comment>
     <comment authorId="0" ref="B24" shapeId="0">
       <text>
-        <t>Type of compressor</t>
+        <t>Type of electrical motor drive</t>
       </text>
     </comment>
     <comment authorId="0" ref="B25" shapeId="0">
       <text>
-        <t>Type of electrical motor drive</t>
+        <t>Source of the liquid properties data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B26" shapeId="0">
       <text>
-        <t>Source of the liquid properties data</t>
+        <t>Type of refrigerant</t>
       </text>
     </comment>
     <comment authorId="0" ref="B27" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
-      <text>
         <t>Indicates if a hot-gas bypass valve is installed on the chiller</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A28" shapeId="0">
+      <text>
+        <t>Data group containing information relevant to products rated under AHRI 550/590</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B29" shapeId="0">
+      <text>
+        <t>Certification reference number</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B30" shapeId="0">
       <text>
+        <t>Version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Unit rated refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Total unit power at design point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Rated part load efficiency over an integrated load profile</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A35" shapeId="0">
+      <text>
+        <t>The four measured data points used to calculate the part load rating value</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
+      <text>
+        <t>Chilled liquid flow at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B38" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39" shapeId="0">
+      <text>
+        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B40" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B41" shapeId="0">
+      <text>
+        <t>Condenser liquid flow at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B42" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B43" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B44" shapeId="0">
+      <text>
+        <t>Pressure drop across the condenser at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B46" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A47" shapeId="0">
+      <text>
+        <t>Data group containing information relevant to products rated under AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B48" shapeId="0">
+      <text>
         <t>Certification reference number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment authorId="0" ref="B49" shapeId="0">
       <text>
         <t>Version</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
+    <comment authorId="0" ref="B50" shapeId="0">
       <text>
         <t>Unit rated refrigeration capacity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
+    <comment authorId="0" ref="B51" shapeId="0">
       <text>
         <t>Total unit power at design point</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
+    <comment authorId="0" ref="B52" shapeId="0">
       <text>
         <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
+    <comment authorId="0" ref="B53" shapeId="0">
       <text>
         <t>Rated part load efficiency over an integrated load profile</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
+    <comment authorId="0" ref="A54" shapeId="0">
+      <text>
+        <t>The four measured data points used to calculate the part load rating value</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B55" shapeId="0">
       <text>
         <t>Chilled liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
+    <comment authorId="0" ref="B56" shapeId="0">
       <text>
         <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
+    <comment authorId="0" ref="B57" shapeId="0">
       <text>
         <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
+    <comment authorId="0" ref="B58" shapeId="0">
       <text>
         <t>Pressure drop across the evaporator at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
+    <comment authorId="0" ref="B59" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B60" shapeId="0">
       <text>
         <t>Condenser liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41" shapeId="0">
+    <comment authorId="0" ref="B61" shapeId="0">
       <text>
         <t>Entering condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42" shapeId="0">
+    <comment authorId="0" ref="B62" shapeId="0">
       <text>
         <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43" shapeId="0">
+    <comment authorId="0" ref="B63" shapeId="0">
       <text>
         <t>Pressure drop across the condenser at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44" shapeId="0">
+    <comment authorId="0" ref="B64" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B65" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A46" shapeId="0">
-      <text>
-        <t>Type of liquid in evaporator</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B48" shapeId="0">
+    <comment authorId="0" ref="A67" shapeId="0">
+      <text>
+        <t>Type of liquid made up of constituent liquid components</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B69" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A49" shapeId="0">
-      <text>
-        <t>Type of liquid in evaporator</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B51" shapeId="0">
+    <comment authorId="0" ref="A70" shapeId="0">
+      <text>
+        <t>Type of liquid made up of constituent liquid components</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B72" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B52" shapeId="0">
+    <comment authorId="0" ref="B73" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B53" shapeId="0">
+    <comment authorId="0" ref="B74" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B54" shapeId="0">
+    <comment authorId="0" ref="B75" shapeId="0">
       <text>
         <t>Maximum unit power input</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A55" shapeId="0">
+    <comment authorId="0" ref="B76" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A77" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A56" shapeId="0">
+    <comment authorId="0" ref="A78" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -325,82 +452,67 @@
   <commentList>
     <comment authorId="0" ref="A2" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for cooling performance</t>
+        <t>The percent full load cooling capacity for this data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>The actual cooling capacity for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2" shapeId="0">
+      <text>
+        <t>The total unit power consumption for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D2" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E2" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature for the data point</t>
       </text>
     </comment>
     <comment authorId="0" ref="F2" shapeId="0">
       <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Chilled liquid (evaporator) flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Condenser liquid flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Fraction of maximum net capacity at the same operating conditions.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Total power input to the packaged chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Unit refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Condenser heat rejection</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
-      <text>
-        <t>Heat rejected by the chiller oil cooler (if separate stream crossing the control volume boundary)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
-      <text>
-        <t>Heat rejected by the motor control center cooling (if separate stream crossing the control volume boundary)</t>
+        <t>Chilled liquid flow for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Pressure drop across the evaporator for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H2" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I2" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J2" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K2" shapeId="0">
+      <text>
+        <t>Condenser liquid flow for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L2" shapeId="0">
+      <text>
+        <t>Pressure drop across the condenser for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M2" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
       </text>
     </comment>
   </commentList>
@@ -408,6 +520,171 @@
 </file>
 
 <file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>The percent full load cooling capacity for this data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>The actual cooling capacity for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C2" shapeId="0">
+      <text>
+        <t>The total unit power consumption for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D2" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E2" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F2" shapeId="0">
+      <text>
+        <t>Chilled liquid flow for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Pressure drop across the evaporator for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H2" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I2" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J2" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature for the data point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K2" shapeId="0">
+      <text>
+        <t>Condenser liquid flow for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L2" shapeId="0">
+      <text>
+        <t>Pressure drop across the condenser for the data point.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M2" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F2" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D3" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E3" shapeId="0">
+      <text>
+        <t>Fraction of maximum net capacity at the same operating conditions.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3" shapeId="0">
+      <text>
+        <t>Total power input to the packaged chiller</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G3" shapeId="0">
+      <text>
+        <t>Unit refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3" shapeId="0">
+      <text>
+        <t>Condenser heat rejection</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J3" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K3" shapeId="0">
+      <text>
+        <t>Pressure drop across the evaporator</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L3" shapeId="0">
+      <text>
+        <t>Pressure drop across the condenser</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M3" shapeId="0">
+      <text>
+        <t>Heat rejected by the chiller oil cooler (if separate stream crossing the control volume boundary)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N3" shapeId="0">
+      <text>
+        <t>Heat rejected by the motor control center cooling (if separate stream crossing the control volume boundary)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -726,7 +1003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1018,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>RS0001: Liquid-Cooler Chillers</t>
+          <t>RS0001: Liquid-Cooled Chiller</t>
         </is>
       </c>
     </row>
@@ -917,7 +1194,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -925,60 +1202,65 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">            manufacturer_software_version</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_software_version</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
+          <t xml:space="preserve">            model_number</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">            nominal_voltage</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                nominal_voltage</t>
+          <t xml:space="preserve">            nominal_frequency</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Hz</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -986,12 +1268,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                nominal_frequency</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Hz</t>
+          <t xml:space="preserve">            tolerance_standard</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
@@ -999,7 +1276,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">                tolerance_standard</t>
+          <t xml:space="preserve">            compressor_type</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
@@ -1007,7 +1284,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_type</t>
+          <t xml:space="preserve">            speed_control_type</t>
         </is>
       </c>
       <c r="E24" s="3" t="n"/>
@@ -1015,7 +1292,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                speed_control_type</t>
+          <t xml:space="preserve">            liquid_data_source</t>
         </is>
       </c>
       <c r="E25" s="3" t="n"/>
@@ -1023,7 +1300,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                liquid_data_source</t>
+          <t xml:space="preserve">            refrigerant_type</t>
         </is>
       </c>
       <c r="E26" s="3" t="n"/>
@@ -1031,31 +1308,35 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
+          <t xml:space="preserve">            hotgas_bypass_installed</t>
         </is>
       </c>
       <c r="E27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                hotgas_bypass_installed</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590</t>
         </is>
       </c>
       <c r="E28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.description.rating_AHRI</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            certification_reference_number</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certification_reference_number</t>
+          <t xml:space="preserve">            standard_rating_version</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1067,7 +1348,12 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                standard_rating_version</t>
+          <t xml:space="preserve">            net_refrigerating_capacity</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1079,12 +1365,12 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                net_refrigerating_capacity</t>
+          <t xml:space="preserve">            input_power</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1096,12 +1382,12 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                input_power</t>
+          <t xml:space="preserve">            COP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1113,7 +1399,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                COP</t>
+          <t xml:space="preserve">            part_load_value</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1128,31 +1414,27 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                part_load_value</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">            full_load_evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>m3/s</t>
+          <t>gpm</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
@@ -1164,12 +1446,12 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">            full_load_evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1181,12 +1463,12 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">            full_load_evaporator_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1198,12 +1480,12 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">                evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">            full_load_evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>ft of water</t>
         </is>
       </c>
       <c r="E39" s="3" t="inlineStr">
@@ -1215,12 +1497,12 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">            full_load_evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>m3/s</t>
+          <t>h-ft2-F/Btu</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1232,12 +1514,12 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">            full_load_condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>gpm</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1249,12 +1531,12 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">            full_load_condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
@@ -1266,12 +1548,12 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">                condenser_liquid_dfferential_pressure</t>
+          <t xml:space="preserve">            full_load_condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E43" s="3" t="inlineStr">
@@ -1283,7 +1565,12 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">            full_load_condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ft of water</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -1293,9 +1580,14 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr">
@@ -1305,9 +1597,9 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type</t>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
@@ -1319,12 +1611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>$liquid_components</t>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591</t>
         </is>
       </c>
       <c r="E47" s="3" t="n"/>
@@ -1332,15 +1619,19 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">                concentration_type</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="n"/>
+          <t xml:space="preserve">            certification_reference_number</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type</t>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            standard_rating_version</t>
         </is>
       </c>
       <c r="E49" s="3" t="inlineStr">
@@ -1350,35 +1641,48 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>$liquid_components0</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            net_refrigerating_capacity</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">                concentration_type</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="n"/>
+          <t xml:space="preserve">            input_power</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">            evaporator_fouling_factor</t>
+          <t xml:space="preserve">            COP</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>m2-K/W</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
@@ -1390,88 +1694,411 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">            condenser_fouling_factor</t>
+          <t xml:space="preserve">            part_load_value</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points0</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            full_load_condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n"/>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            concentration_type</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            concentration_type</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>m2-K/W</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            unit_power_limit</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        unit_power_limit</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="E75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>$performance_map_cooling</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
       <formula1>"CONSTANT_SPEED,VARIABLE_SPEED"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
       <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+      <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C72" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1481,6 +2108,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590.part_load_rating_points.percent_full_load_capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>percent_full_load_capacity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cooling_capacity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>unit_power</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>condenser_fouling_factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ft of water</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ft of water</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591.part_load_rating_points.percent_full_load_capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>percent_full_load_capacity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cooling_capacity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>unit_power</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>condenser_fouling_factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1497,7 +2446,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.evaporator_liquid_type.liquid_components.liquid_constituent</t>
+          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type.liquid_components.liquid_constituent</t>
         </is>
       </c>
     </row>
@@ -1518,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1535,7 +2484,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.condenser_liquid_type.liquid_components.liquid_constituent</t>
+          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type.liquid_components.liquid_constituent</t>
         </is>
       </c>
     </row>
@@ -1556,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1573,7 +2522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -1739,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +2705,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0001.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,24 +33,57 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font/>
     <font>
+      <b val="1"/>
       <color rgb="000070C0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808B96"/>
+        <bgColor rgb="00808B96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000529B"/>
+        <bgColor rgb="0000529B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001AED8"/>
+        <bgColor rgb="0001AED8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,27 +91,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Heading" xfId="2"/>
+    <cellStyle hidden="0" name="Schema" xfId="3"/>
+    <cellStyle hidden="0" name="Value" xfId="4"/>
+    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -90,324 +151,339 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>ASHRAE 205 schema version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Representation specification identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>Unique equipment identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B8" shapeId="0">
       <text>
-        <t>Unique equipment identifier</t>
+        <t>Date of publication</t>
       </text>
     </comment>
     <comment authorId="0" ref="B9" shapeId="0">
       <text>
-        <t>Date of publication</t>
+        <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
-        <t>Integer version identifier for the data in the representation</t>
+        <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>Free-form identification of the source of this data</t>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B12" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
-      <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A16" shapeId="0">
+    <comment authorId="0" ref="A14" shapeId="0">
+      <text>
+        <t>Data group describing product and rating information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B16" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B17" shapeId="0">
       <text>
-        <t>Name of the manufacturer</t>
+        <t>Version of the software used to generate the performance map</t>
       </text>
     </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Version of the software used to generate the performance map</t>
+        <t>Model number for this chiller</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number for this chiller</t>
+        <t>Unit nominal voltage</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Unit nominal voltage</t>
+        <t>Unit nominal frequency</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Unit nominal frequency</t>
+        <t>Name and version of the testing or certification standard under which the chiller is rated</t>
       </text>
     </comment>
     <comment authorId="0" ref="B22" shapeId="0">
       <text>
-        <t>Name and version of the testing or certification standard under which the chiller is rated.</t>
+        <t>Type of compressor</t>
       </text>
     </comment>
     <comment authorId="0" ref="B23" shapeId="0">
       <text>
-        <t>Type of compressor</t>
+        <t>Type of electrical motor drive</t>
       </text>
     </comment>
     <comment authorId="0" ref="B24" shapeId="0">
       <text>
-        <t>Type of electrical motor drive</t>
+        <t>Source of the liquid properties data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B25" shapeId="0">
       <text>
-        <t>Source of the liquid properties data</t>
+        <t>Refrigerant used in the chiller</t>
       </text>
     </comment>
     <comment authorId="0" ref="B26" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
-      <text>
         <t>Indicates if a hot-gas bypass valve is installed on the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
+    <comment authorId="0" ref="A27" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 550/590</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B28" shapeId="0">
+      <text>
+        <t>Certification reference number</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B29" shapeId="0">
       <text>
+        <t>Version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Unit rated refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Total unit power at design point</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Rated part load efficiency over an integrated load profile</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A34" shapeId="0">
+      <text>
+        <t>The four measured data points used to calculate the part load rating value</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Chilled liquid flow at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B38" shapeId="0">
+      <text>
+        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B40" shapeId="0">
+      <text>
+        <t>Condenser liquid flow at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B41" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B42" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B43" shapeId="0">
+      <text>
+        <t>Pressure drop across the condenser at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B44" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A46" shapeId="0">
+      <text>
+        <t>Data group containing information relevant to products rated under AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B47" shapeId="0">
+      <text>
         <t>Certification reference number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
+    <comment authorId="0" ref="B48" shapeId="0">
       <text>
         <t>Version</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment authorId="0" ref="B49" shapeId="0">
       <text>
         <t>Unit rated refrigeration capacity</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
+    <comment authorId="0" ref="B50" shapeId="0">
       <text>
         <t>Total unit power at design point</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
+    <comment authorId="0" ref="B51" shapeId="0">
       <text>
         <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
+    <comment authorId="0" ref="B52" shapeId="0">
       <text>
         <t>Rated part load efficiency over an integrated load profile</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A35" shapeId="0">
+    <comment authorId="0" ref="A53" shapeId="0">
       <text>
         <t>The four measured data points used to calculate the part load rating value</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
+    <comment authorId="0" ref="B54" shapeId="0">
       <text>
         <t>Chilled liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
+    <comment authorId="0" ref="B55" shapeId="0">
       <text>
         <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
+    <comment authorId="0" ref="B56" shapeId="0">
       <text>
         <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
+    <comment authorId="0" ref="B57" shapeId="0">
       <text>
         <t>Pressure drop across the evaporator at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
+    <comment authorId="0" ref="B58" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B41" shapeId="0">
+    <comment authorId="0" ref="B59" shapeId="0">
       <text>
         <t>Condenser liquid flow at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B42" shapeId="0">
+    <comment authorId="0" ref="B60" shapeId="0">
       <text>
         <t>Entering condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B43" shapeId="0">
+    <comment authorId="0" ref="B61" shapeId="0">
       <text>
         <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B44" shapeId="0">
+    <comment authorId="0" ref="B62" shapeId="0">
       <text>
         <t>Pressure drop across the condenser at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45" shapeId="0">
+    <comment authorId="0" ref="B63" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B46" shapeId="0">
+    <comment authorId="0" ref="B64" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A47" shapeId="0">
-      <text>
-        <t>Data group containing information relevant to products rated under AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B48" shapeId="0">
-      <text>
-        <t>Certification reference number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B49" shapeId="0">
-      <text>
-        <t>Version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B50" shapeId="0">
-      <text>
-        <t>Unit rated refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B51" shapeId="0">
-      <text>
-        <t>Total unit power at design point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B52" shapeId="0">
-      <text>
-        <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B53" shapeId="0">
-      <text>
-        <t>Rated part load efficiency over an integrated load profile</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A54" shapeId="0">
-      <text>
-        <t>The four measured data points used to calculate the part load rating value</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B55" shapeId="0">
-      <text>
-        <t>Chilled liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B56" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B57" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B58" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B59" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B60" shapeId="0">
-      <text>
-        <t>Condenser liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B61" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B62" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B63" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B64" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B65" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A67" shapeId="0">
-      <text>
-        <t>Type of liquid made up of constituent liquid components</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B69" shapeId="0">
+    <comment authorId="0" ref="A65" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A66" shapeId="0">
+      <text>
+        <t>Type of liquid in evaporator</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B68" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A70" shapeId="0">
-      <text>
-        <t>Type of liquid made up of constituent liquid components</t>
+    <comment authorId="0" ref="A69" shapeId="0">
+      <text>
+        <t>Type of liquid in condenser</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B71" shapeId="0">
+      <text>
+        <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
     <comment authorId="0" ref="B72" shapeId="0">
       <text>
-        <t>Defines whether concentration is defined on a volume or mass basis</t>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
     <comment authorId="0" ref="B73" shapeId="0">
@@ -417,25 +493,20 @@
     </comment>
     <comment authorId="0" ref="B74" shapeId="0">
       <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
+        <t>Maximum unit power input</t>
       </text>
     </comment>
     <comment authorId="0" ref="B75" shapeId="0">
       <text>
-        <t>Maximum unit power input</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B76" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A76" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A77" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A78" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -1003,7 +1074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:AZ77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,1097 +1082,1406 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="50"/>
-    <col customWidth="1" max="3" min="3" width="31"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RS0001: Liquid-Cooled Chiller</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Data Group</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Data Element</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASHRAE205</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>standard_version</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>RS0001</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RS0001</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>data_timestamp</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.product_information</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        manufacturer_software_version</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            manufacturer_software_version</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        model_number</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        nominal_voltage</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_voltage</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        nominal_frequency</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_frequency</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        tolerance_standard</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            tolerance_standard</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        compressor_type</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_type</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        speed_control_type</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            speed_control_type</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        liquid_data_source</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            liquid_data_source</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        refrigerant_type</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            refrigerant_type</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        hotgas_bypass_installed</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            hotgas_bypass_installed</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n"/>
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_550_590</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n"/>
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        certification_reference_number</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            certification_reference_number</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standard_rating_version</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            standard_rating_version</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        net_refrigerating_capacity</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
+        </is>
+      </c>
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            net_refrigerating_capacity</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        input_power</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            input_power</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        COP</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        part_load_value</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n"/>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n"/>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>ft of water</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n"/>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n"/>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n"/>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n"/>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>ft of water</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_551_591</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="6" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        certification_reference_number</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standard_rating_version</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        net_refrigerating_capacity</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="n"/>
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            COP</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        input_power</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n"/>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        COP</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n"/>
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            part_load_value</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        part_load_value</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="n"/>
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_dfferential_pressure</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            certification_reference_number</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            standard_rating_version</t>
-        </is>
-      </c>
-      <c r="E49" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            net_refrigerating_capacity</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            input_power</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            COP</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points0</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n"/>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n"/>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="n"/>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="n"/>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n"/>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_liquid_dfferential_pressure</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="n"/>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        full_load_condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n"/>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="5" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.evaporator_liquid_type</t>
+        </is>
+      </c>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="5" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        concentration_type</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="5" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        concentration_type</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    evaporator_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="n"/>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    condenser_fouling_factor</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n"/>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    unit_power_limit</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="n"/>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n"/>
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            part_load_value</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points0</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_liquid_dfferential_pressure</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            full_load_condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>$liquid_components</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="n"/>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            concentration_type</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>$liquid_components0</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="n"/>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            concentration_type</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="n"/>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        unit_power_limit</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="n"/>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E76" s="3" t="n"/>
+      <c r="A76" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="5" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+  <dataValidations count="11">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"CONSTANT_SPEED,VARIABLE_SPEED"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C29" type="list">
       <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
       <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C64" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C72" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1"/>
+    <hyperlink ref="C53" r:id="rId2"/>
+    <hyperlink ref="C67" r:id="rId3"/>
+    <hyperlink ref="C70" r:id="rId4"/>
+    <hyperlink ref="C76" r:id="rId5"/>
+    <hyperlink ref="C77" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -2113,154 +2493,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_550_590.part_load_rating_points.percent_full_load_capacity</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>percent_full_load_capacity</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>cooling_capacity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>unit_power</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_differential_pressure</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>evaporator_fouling_factor</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_dfferential_pressure</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>condenser_fouling_factor</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Btu/h</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>gpm</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>ft of water</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>h-ft2-F/Btu</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>gpm</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>ft of water</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>h-ft2-F/Btu</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2274,154 +2819,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.rating_AHRI_551_591.part_load_rating_points.percent_full_load_capacity</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>percent_full_load_capacity</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>cooling_capacity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>unit_power</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_differential_pressure</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>evaporator_fouling_factor</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_dfferential_pressure</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>condenser_fouling_factor</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>kW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>l/s</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>kPa</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>m2-K/kW</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>gpm</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>kPa</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>m2-K/kW</t>
         </is>
       </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2435,34 +3145,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.evaporator_liquid_type.liquid_components.liquid_constituent</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>liquid_constituent</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>concentration</t>
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+    </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A5" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A6" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A7" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A8" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2473,34 +3329,180 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.condenser_liquid_type.liquid_components.liquid_constituent</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>liquid_constituent</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>concentration</t>
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+    </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A5" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A6" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A7" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A8" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -2511,176 +3513,805 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="n"/>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t>condenser_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>net_evaporator_capacity_fraction</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>input_power</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>net_evaporator_capacity</t>
         </is>
       </c>
-      <c r="H3" s="6" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t>net_condenser_capacity</t>
         </is>
       </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>evaporator_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>condenser_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="K3" s="6" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>evaporator_liquid_differential_pressure</t>
         </is>
       </c>
-      <c r="L3" s="6" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>condenser_liquid_differential_pressure</t>
         </is>
       </c>
-      <c r="M3" s="6" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t>oil_cooler_heat</t>
         </is>
       </c>
-      <c r="N3" s="6" t="inlineStr">
+      <c r="N3" s="9" t="inlineStr">
         <is>
           <t>motor_controller_heat</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>m3/s</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>m3/s</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>Pa</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
+      <c r="N6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
+      <c r="N7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
+      <c r="N9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+      <c r="N10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="5" t="n"/>
+      <c r="J11" s="5" t="n"/>
+      <c r="K11" s="5" t="n"/>
+      <c r="L11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
+      <c r="N11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="5" t="n"/>
+      <c r="J12" s="5" t="n"/>
+      <c r="K12" s="5" t="n"/>
+      <c r="L12" s="5" t="n"/>
+      <c r="M12" s="5" t="n"/>
+      <c r="N12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+      <c r="J13" s="5" t="n"/>
+      <c r="K13" s="5" t="n"/>
+      <c r="L13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
+      <c r="N13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="5" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="5" t="n"/>
+      <c r="I16" s="5" t="n"/>
+      <c r="J16" s="5" t="n"/>
+      <c r="K16" s="5" t="n"/>
+      <c r="L16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
+      <c r="N16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+      <c r="H17" s="5" t="n"/>
+      <c r="I17" s="5" t="n"/>
+      <c r="J17" s="5" t="n"/>
+      <c r="K17" s="5" t="n"/>
+      <c r="L17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
+      <c r="N17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="5" t="n"/>
+      <c r="J18" s="5" t="n"/>
+      <c r="K18" s="5" t="n"/>
+      <c r="L18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
+      <c r="N18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="5" t="n"/>
+      <c r="J19" s="5" t="n"/>
+      <c r="K19" s="5" t="n"/>
+      <c r="L19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
+      <c r="N19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="5" t="n"/>
+      <c r="G20" s="5" t="n"/>
+      <c r="H20" s="5" t="n"/>
+      <c r="I20" s="5" t="n"/>
+      <c r="J20" s="5" t="n"/>
+      <c r="K20" s="5" t="n"/>
+      <c r="L20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
+      <c r="N20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="5" t="n"/>
+      <c r="G21" s="5" t="n"/>
+      <c r="H21" s="5" t="n"/>
+      <c r="I21" s="5" t="n"/>
+      <c r="J21" s="5" t="n"/>
+      <c r="K21" s="5" t="n"/>
+      <c r="L21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
+      <c r="N21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
+      <c r="F22" s="5" t="n"/>
+      <c r="G22" s="5" t="n"/>
+      <c r="H22" s="5" t="n"/>
+      <c r="I22" s="5" t="n"/>
+      <c r="J22" s="5" t="n"/>
+      <c r="K22" s="5" t="n"/>
+      <c r="L22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
+      <c r="N22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="5" t="n"/>
+      <c r="F23" s="5" t="n"/>
+      <c r="G23" s="5" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+      <c r="J23" s="5" t="n"/>
+      <c r="K23" s="5" t="n"/>
+      <c r="L23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
+      <c r="N23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
+      <c r="I24" s="5" t="n"/>
+      <c r="J24" s="5" t="n"/>
+      <c r="K24" s="5" t="n"/>
+      <c r="L24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
+      <c r="N24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="5" t="n"/>
+      <c r="G25" s="5" t="n"/>
+      <c r="H25" s="5" t="n"/>
+      <c r="I25" s="5" t="n"/>
+      <c r="J25" s="5" t="n"/>
+      <c r="K25" s="5" t="n"/>
+      <c r="L25" s="5" t="n"/>
+      <c r="M25" s="5" t="n"/>
+      <c r="N25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="5" t="n"/>
+      <c r="G26" s="5" t="n"/>
+      <c r="H26" s="5" t="n"/>
+      <c r="I26" s="5" t="n"/>
+      <c r="J26" s="5" t="n"/>
+      <c r="K26" s="5" t="n"/>
+      <c r="L26" s="5" t="n"/>
+      <c r="M26" s="5" t="n"/>
+      <c r="N26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="5" t="n"/>
+      <c r="F27" s="5" t="n"/>
+      <c r="G27" s="5" t="n"/>
+      <c r="H27" s="5" t="n"/>
+      <c r="I27" s="5" t="n"/>
+      <c r="J27" s="5" t="n"/>
+      <c r="K27" s="5" t="n"/>
+      <c r="L27" s="5" t="n"/>
+      <c r="M27" s="5" t="n"/>
+      <c r="N27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="5" t="n"/>
+      <c r="E28" s="5" t="n"/>
+      <c r="F28" s="5" t="n"/>
+      <c r="G28" s="5" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+      <c r="J28" s="5" t="n"/>
+      <c r="K28" s="5" t="n"/>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="5" t="n"/>
+      <c r="N28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="5" t="n"/>
+      <c r="E29" s="5" t="n"/>
+      <c r="F29" s="5" t="n"/>
+      <c r="G29" s="5" t="n"/>
+      <c r="H29" s="5" t="n"/>
+      <c r="I29" s="5" t="n"/>
+      <c r="J29" s="5" t="n"/>
+      <c r="K29" s="5" t="n"/>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
+      <c r="N29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="5" t="n"/>
+      <c r="G30" s="5" t="n"/>
+      <c r="H30" s="5" t="n"/>
+      <c r="I30" s="5" t="n"/>
+      <c r="J30" s="5" t="n"/>
+      <c r="K30" s="5" t="n"/>
+      <c r="L30" s="5" t="n"/>
+      <c r="M30" s="5" t="n"/>
+      <c r="N30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="5" t="n"/>
+      <c r="F31" s="5" t="n"/>
+      <c r="G31" s="5" t="n"/>
+      <c r="H31" s="5" t="n"/>
+      <c r="I31" s="5" t="n"/>
+      <c r="J31" s="5" t="n"/>
+      <c r="K31" s="5" t="n"/>
+      <c r="L31" s="5" t="n"/>
+      <c r="M31" s="5" t="n"/>
+      <c r="N31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
+      <c r="I32" s="5" t="n"/>
+      <c r="J32" s="5" t="n"/>
+      <c r="K32" s="5" t="n"/>
+      <c r="L32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
+      <c r="N32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="5" t="n"/>
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="5" t="n"/>
+      <c r="J33" s="5" t="n"/>
+      <c r="K33" s="5" t="n"/>
+      <c r="L33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
+      <c r="N33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="5" t="n"/>
+      <c r="I34" s="5" t="n"/>
+      <c r="J34" s="5" t="n"/>
+      <c r="K34" s="5" t="n"/>
+      <c r="L34" s="5" t="n"/>
+      <c r="M34" s="5" t="n"/>
+      <c r="N34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="5" t="n"/>
+      <c r="F35" s="5" t="n"/>
+      <c r="G35" s="5" t="n"/>
+      <c r="H35" s="5" t="n"/>
+      <c r="I35" s="5" t="n"/>
+      <c r="J35" s="5" t="n"/>
+      <c r="K35" s="5" t="n"/>
+      <c r="L35" s="5" t="n"/>
+      <c r="M35" s="5" t="n"/>
+      <c r="N35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="5" t="n"/>
+      <c r="E36" s="5" t="n"/>
+      <c r="F36" s="5" t="n"/>
+      <c r="G36" s="5" t="n"/>
+      <c r="H36" s="5" t="n"/>
+      <c r="I36" s="5" t="n"/>
+      <c r="J36" s="5" t="n"/>
+      <c r="K36" s="5" t="n"/>
+      <c r="L36" s="5" t="n"/>
+      <c r="M36" s="5" t="n"/>
+      <c r="N36" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2694,56 +4325,169 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>chiller_environment_dry_bulb_temperature</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>input_power</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0001" sheetId="1" state="visible" r:id="rId1"/>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,6 +91,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -104,44 +105,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -151,362 +219,377 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Version of the software used to generate the performance map</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
-      <text>
-        <t>Model number for this chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <t>Unit nominal voltage</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>Unit nominal frequency</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
-      <text>
-        <t>Name and version of the testing or certification standard under which the chiller is rated</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>Type of compressor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Type of electrical motor drive</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <t>Source of the liquid properties data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <t>Refrigerant used in the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>Indicates if a hot-gas bypass valve is installed on the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 550/590</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
-      <text>
-        <t>Certification reference number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
-      <text>
-        <t>Version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Unit rated refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
-      <text>
-        <t>Total unit power at design point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
-      <text>
-        <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>Rated part load efficiency over an integrated load profile</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A34" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
+      <text>
+        <t>AHRI certified reference number</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <t>Year of the AHRI test standard</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <t>Source of this rating data</t>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <t>Rated net refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <t>Ratio of the net refrigerating capacity to the total input power at the rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <t>Rated part-load efficiency on the basis of weighted operation at various partial load capacities</t>
+      </text>
+    </comment>
+    <comment ref="A32" authorId="0" shapeId="0">
       <text>
         <t>The four measured data points used to calculate the part load rating value</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
-        <t>Chilled liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
-      <text>
-        <t>Condenser liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B41" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B42" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B43" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B44" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B45" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
+      <text>
+        <t>Evaporator liquid volumetric flow rate at the full load design point rating condition</t>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer at the full load design rating condition</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid volumetric flow rate at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A46" shapeId="0">
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 551/591</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B47" shapeId="0">
-      <text>
-        <t>Certification reference number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B48" shapeId="0">
-      <text>
-        <t>Version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B49" shapeId="0">
-      <text>
-        <t>Unit rated refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B50" shapeId="0">
-      <text>
-        <t>Total unit power at design point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B51" shapeId="0">
-      <text>
-        <t>Efficiency at design point as ratio of unit of cooling per unit of power consumed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B52" shapeId="0">
-      <text>
-        <t>Rated part load efficiency over an integrated load profile</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A53" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
+      <text>
+        <t>AHRI certified reference number</t>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0">
+      <text>
+        <t>Year of the AHRI test standard</t>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0">
+      <text>
+        <t>Source of this rating data</t>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="0" shapeId="0">
+      <text>
+        <t>Rated net refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="0" shapeId="0">
+      <text>
+        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0">
+      <text>
+        <t>Ratio of the net refrigerating capacity to the total input power at the rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0" shapeId="0">
+      <text>
+        <t>Rated part-load efficiency on the basis of weighted operation at various partial load capacities</t>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <t>The four measured data points used to calculate the part load rating value</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B54" shapeId="0">
-      <text>
-        <t>Chilled liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B55" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B56" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B57" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B58" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B59" shapeId="0">
-      <text>
-        <t>Condenser liquid flow at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B60" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B61" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B62" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B63" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer at the full load design point rating condition</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B64" shapeId="0">
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <t>Evaporator liquid volumetric flow rate at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid volumetric flow rate at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B59" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B60" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B61" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer at the full load design rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="0" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A65" shapeId="0">
+    <comment ref="A64" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A66" shapeId="0">
+    <comment ref="A65" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in evaporator</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B68" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A69" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in condenser</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B71" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B72" shapeId="0">
+    <comment ref="B71" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B73" shapeId="0">
+    <comment ref="B72" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B74" shapeId="0">
-      <text>
-        <t>Maximum unit power input</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B75" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 550/590 or AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A76" shapeId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
+      <text>
+        <t>Type of compressor speed control</t>
+      </text>
+    </comment>
+    <comment ref="B74" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum input power at which the chiller operates reliably and continuously</t>
+      </text>
+    </comment>
+    <comment ref="B75" authorId="0" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment ref="A76" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A77" shapeId="0">
+    <comment ref="A77" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -521,69 +604,69 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>The percent full load cooling capacity for this data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
-      <text>
-        <t>The actual cooling capacity for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
-      <text>
-        <t>The total unit power consumption for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
-      <text>
-        <t>Chilled liquid flow for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
-      <text>
-        <t>Condenser liquid flow for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M2" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Percent full load cooling capacity</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>The actual cooling capacity</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>Evaporator liquid volumetric flow rate</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid volumetric flow rate</t>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the condenser</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the condenser</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer</t>
       </text>
     </comment>
   </commentList>
@@ -596,69 +679,69 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>The percent full load cooling capacity for this data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
-      <text>
-        <t>The actual cooling capacity for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C2" shapeId="0">
-      <text>
-        <t>The total unit power consumption for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D2" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E2" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
-      <text>
-        <t>Chilled liquid flow for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H2" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I2" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J2" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature for the data point</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K2" shapeId="0">
-      <text>
-        <t>Condenser liquid flow for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L2" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser for the data point.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M2" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer for the data point</t>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Percent full load cooling capacity</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>The actual cooling capacity</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <t>Evaporator liquid volumetric flow rate</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid volumetric flow rate</t>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the entry flange of the condenser</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <t>Liquid temperature at the exit flange of the condenser</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer</t>
       </text>
     </comment>
   </commentList>
@@ -671,84 +754,14 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Chilled liquid (evaporator) flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Leaving evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Condenser liquid flow</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Fraction of maximum net capacity at the same operating conditions.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Total power input to the packaged chiller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Unit refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Condenser heat rejection</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="J3" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="K3" shapeId="0">
-      <text>
-        <t>Pressure drop across the evaporator</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="L3" shapeId="0">
-      <text>
-        <t>Pressure drop across the condenser</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M3" shapeId="0">
-      <text>
-        <t>Heat rejected by the chiller oil cooler (if separate stream crossing the control volume boundary)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="N3" shapeId="0">
-      <text>
-        <t>Heat rejected by the motor control center cooling (if separate stream crossing the control volume boundary)</t>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Substance of this component of the mixture</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Concentration of this component of the mixture</t>
       </text>
     </comment>
   </commentList>
@@ -761,24 +774,134 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Substance of this component of the mixture</t>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <t>Concentration of this component of the mixture</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power input</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <t>Refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser heat rejection</t>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the grid variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <t>Data group defining the lookup variables for standby performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Dry bulb temperature of the air in the environment of the chiller</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Total power consumed by the chiller when not running. Value shall include all power sources and all auxiliary equipment provided with the chiller.</t>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power consumed in standby operation</t>
       </text>
     </comment>
   </commentList>
@@ -1082,58 +1205,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1222,12 +1345,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
@@ -1240,14 +1363,10 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -1259,14 +1378,10 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>RS0001</t>
-        </is>
-      </c>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -1278,10 +1393,14 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n"/>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -1293,7 +1412,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -1308,7 +1427,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -1323,7 +1442,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t>data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -1338,18 +1457,22 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
+          <t>data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -1360,7 +1483,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -1368,24 +1491,20 @@
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
       <c r="C13" s="5" t="n"/>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1396,7 +1515,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -1408,22 +1527,18 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="n"/>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer_software_version</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="n"/>
@@ -1434,28 +1549,28 @@
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    nominal_voltage</t>
         </is>
       </c>
       <c r="C18" s="5" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        nominal_voltage</t>
+          <t xml:space="preserve">    nominal_frequency</t>
         </is>
       </c>
       <c r="C19" s="5" t="n"/>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Hz</t>
         </is>
       </c>
       <c r="E19" s="6" t="n"/>
@@ -1464,22 +1579,18 @@
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        nominal_frequency</t>
+          <t xml:space="preserve">    compressor_type</t>
         </is>
       </c>
       <c r="C20" s="5" t="n"/>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
+      <c r="D20" s="4" t="n"/>
       <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        tolerance_standard</t>
+          <t xml:space="preserve">    liquid_data_source</t>
         </is>
       </c>
       <c r="C21" s="5" t="n"/>
@@ -1490,7 +1601,7 @@
       <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        compressor_type</t>
+          <t xml:space="preserve">    refrigerant</t>
         </is>
       </c>
       <c r="C22" s="5" t="n"/>
@@ -1501,7 +1612,7 @@
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        speed_control_type</t>
+          <t xml:space="preserve">    hot_gas_bypass_installed</t>
         </is>
       </c>
       <c r="C23" s="5" t="n"/>
@@ -1509,12 +1620,12 @@
       <c r="E23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        liquid_data_source</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_550_590</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
       <c r="C24" s="5" t="n"/>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="6" t="n"/>
@@ -1523,31 +1634,39 @@
       <c r="A25" s="4" t="n"/>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        refrigerant_type</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C25" s="5" t="n"/>
       <c r="D25" s="4" t="n"/>
-      <c r="E25" s="6" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n"/>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        hotgas_bypass_installed</t>
+          <t xml:space="preserve">    test_standard_year</t>
         </is>
       </c>
       <c r="C26" s="5" t="n"/>
       <c r="D26" s="4" t="n"/>
-      <c r="E26" s="6" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.description.rating_AHRI_550_590</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="n"/>
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_source</t>
+        </is>
+      </c>
       <c r="C27" s="5" t="n"/>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="6" t="n"/>
@@ -1556,11 +1675,15 @@
       <c r="A28" s="4" t="n"/>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        certification_reference_number</t>
+          <t xml:space="preserve">    net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="C28" s="5" t="n"/>
-      <c r="D28" s="4" t="n"/>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
+        </is>
+      </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1571,11 +1694,15 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        standard_rating_version</t>
+          <t xml:space="preserve">    input_power</t>
         </is>
       </c>
       <c r="C29" s="5" t="n"/>
-      <c r="D29" s="4" t="n"/>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1586,13 +1713,13 @@
       <c r="A30" s="4" t="n"/>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        net_refrigerating_capacity</t>
+          <t xml:space="preserve">    cop</t>
         </is>
       </c>
       <c r="C30" s="5" t="n"/>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>Btu/h</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" s="6" t="inlineStr">
@@ -1605,13 +1732,13 @@
       <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        input_power</t>
+          <t xml:space="preserve">    part_load_value</t>
         </is>
       </c>
       <c r="C31" s="5" t="n"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="6" t="inlineStr">
@@ -1621,35 +1748,31 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        COP</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="n"/>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_550_590.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        part_load_value</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C33" s="5" t="n"/>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>gpm</t>
         </is>
       </c>
       <c r="E33" s="6" t="inlineStr">
@@ -1659,31 +1782,35 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="6" t="n"/>
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C35" s="5" t="n"/>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>gpm</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" s="6" t="inlineStr">
@@ -1696,13 +1823,13 @@
       <c r="A36" s="4" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C36" s="5" t="n"/>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>ft of water</t>
         </is>
       </c>
       <c r="E36" s="6" t="inlineStr">
@@ -1715,13 +1842,13 @@
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n"/>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>h-ft2-F/Btu</t>
         </is>
       </c>
       <c r="E37" s="6" t="inlineStr">
@@ -1734,13 +1861,13 @@
       <c r="A38" s="4" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C38" s="5" t="n"/>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>ft of water</t>
+          <t>gpm</t>
         </is>
       </c>
       <c r="E38" s="6" t="inlineStr">
@@ -1753,13 +1880,13 @@
       <c r="A39" s="4" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_fouling_factor</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="C39" s="5" t="n"/>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>h-ft2-F/Btu</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" s="6" t="inlineStr">
@@ -1772,13 +1899,13 @@
       <c r="A40" s="4" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C40" s="5" t="n"/>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>gpm</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E40" s="6" t="inlineStr">
@@ -1791,13 +1918,13 @@
       <c r="A41" s="4" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C41" s="5" t="n"/>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>ft of water</t>
         </is>
       </c>
       <c r="E41" s="6" t="inlineStr">
@@ -1810,13 +1937,13 @@
       <c r="A42" s="4" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C42" s="5" t="n"/>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>h-ft2-F/Btu</t>
         </is>
       </c>
       <c r="E42" s="6" t="inlineStr">
@@ -1829,15 +1956,11 @@
       <c r="A43" s="4" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_dfferential_pressure</t>
+          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="C43" s="5" t="n"/>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
+      <c r="D43" s="4" t="n"/>
       <c r="E43" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1845,29 +1968,21 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        full_load_condenser_fouling_factor</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_551_591</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
       <c r="C44" s="5" t="n"/>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C45" s="5" t="n"/>
@@ -1879,40 +1994,44 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.description.rating_AHRI_551_591</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="n"/>
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    test_standard_year</t>
+        </is>
+      </c>
       <c r="C46" s="5" t="n"/>
       <c r="D46" s="4" t="n"/>
-      <c r="E46" s="6" t="n"/>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        certification_reference_number</t>
+          <t xml:space="preserve">    rating_source</t>
         </is>
       </c>
       <c r="C47" s="5" t="n"/>
       <c r="D47" s="4" t="n"/>
-      <c r="E47" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        standard_rating_version</t>
+          <t xml:space="preserve">    net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="C48" s="5" t="n"/>
-      <c r="D48" s="4" t="n"/>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>kW</t>
+        </is>
+      </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1923,7 +2042,7 @@
       <c r="A49" s="4" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        net_refrigerating_capacity</t>
+          <t xml:space="preserve">    input_power</t>
         </is>
       </c>
       <c r="C49" s="5" t="n"/>
@@ -1942,13 +2061,13 @@
       <c r="A50" s="4" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        input_power</t>
+          <t xml:space="preserve">    cop</t>
         </is>
       </c>
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -1961,7 +2080,7 @@
       <c r="A51" s="4" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        COP</t>
+          <t xml:space="preserve">    part_load_value</t>
         </is>
       </c>
       <c r="C51" s="5" t="n"/>
@@ -1977,50 +2096,50 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        part_load_value</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="n"/>
-      <c r="D52" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_551_591.part_load_rating_points</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_rating_points0</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="B53" s="4" t="n"/>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points0</t>
-        </is>
-      </c>
-      <c r="D53" s="4" t="n"/>
-      <c r="E53" s="6" t="n"/>
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n"/>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="C54" s="5" t="n"/>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>l/s</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E54" s="6" t="inlineStr">
@@ -2033,7 +2152,7 @@
       <c r="A55" s="4" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C55" s="5" t="n"/>
@@ -2052,13 +2171,13 @@
       <c r="A56" s="4" t="n"/>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C56" s="5" t="n"/>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>kPa</t>
         </is>
       </c>
       <c r="E56" s="6" t="inlineStr">
@@ -2071,13 +2190,13 @@
       <c r="A57" s="4" t="n"/>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C57" s="5" t="n"/>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>m2-K/kW</t>
         </is>
       </c>
       <c r="E57" s="6" t="inlineStr">
@@ -2090,13 +2209,13 @@
       <c r="A58" s="4" t="n"/>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_evaporator_fouling_factor</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C58" s="5" t="n"/>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>m2-K/kW</t>
+          <t>l/s</t>
         </is>
       </c>
       <c r="E58" s="6" t="inlineStr">
@@ -2109,13 +2228,13 @@
       <c r="A59" s="4" t="n"/>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="C59" s="5" t="n"/>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>l/s</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E59" s="6" t="inlineStr">
@@ -2128,7 +2247,7 @@
       <c r="A60" s="4" t="n"/>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C60" s="5" t="n"/>
@@ -2147,13 +2266,13 @@
       <c r="A61" s="4" t="n"/>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C61" s="5" t="n"/>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>kPa</t>
         </is>
       </c>
       <c r="E61" s="6" t="inlineStr">
@@ -2166,13 +2285,13 @@
       <c r="A62" s="4" t="n"/>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_liquid_dfferential_pressure</t>
+          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C62" s="5" t="n"/>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>m2-K/kW</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
@@ -2185,15 +2304,11 @@
       <c r="A63" s="4" t="n"/>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        full_load_condenser_fouling_factor</t>
+          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="C63" s="5" t="n"/>
-      <c r="D63" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
+      <c r="D63" s="4" t="n"/>
       <c r="E63" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2201,12 +2316,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="n"/>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="n"/>
       <c r="C64" s="5" t="n"/>
       <c r="D64" s="4" t="n"/>
       <c r="E64" s="6" t="inlineStr">
@@ -2218,7 +2333,7 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance</t>
+          <t>performance.evaporator_liquid_type</t>
         </is>
       </c>
       <c r="B65" s="4" t="n"/>
@@ -2233,11 +2348,15 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.evaporator_liquid_type</t>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B66" s="4" t="n"/>
-      <c r="C66" s="5" t="n"/>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
       <c r="D66" s="4" t="n"/>
       <c r="E66" s="6" t="inlineStr">
         <is>
@@ -2246,17 +2365,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n"/>
-      <c r="C67" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components</t>
-        </is>
-      </c>
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="n"/>
       <c r="D67" s="4" t="n"/>
       <c r="E67" s="6" t="inlineStr">
         <is>
@@ -2265,12 +2380,12 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="n"/>
-      <c r="B68" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        concentration_type</t>
-        </is>
-      </c>
+      <c r="A68" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n"/>
       <c r="C68" s="5" t="n"/>
       <c r="D68" s="4" t="n"/>
       <c r="E68" s="6" t="inlineStr">
@@ -2282,11 +2397,15 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.condenser_liquid_type</t>
+          <t>performance.condenser_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B69" s="4" t="n"/>
-      <c r="C69" s="5" t="n"/>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
       <c r="D69" s="4" t="n"/>
       <c r="E69" s="6" t="inlineStr">
         <is>
@@ -2295,17 +2414,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="n"/>
-      <c r="C70" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components0</t>
-        </is>
-      </c>
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n"/>
       <c r="D70" s="4" t="n"/>
       <c r="E70" s="6" t="inlineStr">
         <is>
@@ -2317,11 +2432,15 @@
       <c r="A71" s="4" t="n"/>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        concentration_type</t>
+          <t>evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C71" s="5" t="n"/>
-      <c r="D71" s="4" t="n"/>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
       <c r="E71" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2332,7 +2451,7 @@
       <c r="A72" s="4" t="n"/>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    evaporator_fouling_factor</t>
+          <t>condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C72" s="5" t="n"/>
@@ -2351,15 +2470,11 @@
       <c r="A73" s="4" t="n"/>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    condenser_fouling_factor</t>
+          <t>compressor_speed_control_type</t>
         </is>
       </c>
       <c r="C73" s="5" t="n"/>
-      <c r="D73" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
+      <c r="D73" s="4" t="n"/>
       <c r="E73" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2370,7 +2485,7 @@
       <c r="A74" s="4" t="n"/>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    unit_power_limit</t>
+          <t>maximum_power</t>
         </is>
       </c>
       <c r="C74" s="5" t="n"/>
@@ -2385,7 +2500,7 @@
       <c r="A75" s="4" t="n"/>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cycling_degradation_coefficient</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C75" s="5" t="n"/>
@@ -2403,7 +2518,7 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B76" s="4" t="n"/>
@@ -2422,7 +2537,7 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B77" s="4" t="n"/>
@@ -2439,50 +2554,47 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="10">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
-      <formula1>"CONSTANT_SPEED,VARIABLE_SPEED"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
+    <dataValidation sqref="C23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C29" type="list">
-      <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
+    <dataValidation sqref="C26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"IP_2015,IP_2015_ADDENDUM_1,IP_2018,IP_2020"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation sqref="C43" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C48" type="list">
-      <formula1>"AHRI_550_590_2015,AHRI_551_591_2015,AHRI_550_590_2015_ADDENDUM_1,AHRI_551_591_2015_ADDENDUM_1,AHRI_550_590_2018,AHRI_551_591_2018"</formula1>
+    <dataValidation sqref="C46" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"SI_2015,SI_2015_ADDENDUM_1,SI_2018"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C64" type="list">
+    <dataValidation sqref="C63" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C68" type="list">
+    <dataValidation sqref="C67" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation sqref="C70" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C73" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C34" r:id="rId1"/>
-    <hyperlink ref="C53" r:id="rId2"/>
-    <hyperlink ref="C67" r:id="rId3"/>
-    <hyperlink ref="C70" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="C52" r:id="rId2"/>
+    <hyperlink ref="C66" r:id="rId3"/>
+    <hyperlink ref="C69" r:id="rId4"/>
     <hyperlink ref="C76" r:id="rId5"/>
     <hyperlink ref="C77" r:id="rId6"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -2501,64 +2613,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.description.rating_AHRI_550_590.part_load_rating_points</t>
+          <t>description.rating_ahri_550_590.part_load_rating_points</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2626,24 +2738,24 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>unit_power</t>
+          <t>input_power</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
           <t>evaporator_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_differential_pressure</t>
@@ -2656,22 +2768,22 @@
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
           <t>condenser_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>condenser_liquid_dfferential_pressure</t>
+          <t>condenser_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -2698,42 +2810,42 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t>gpm</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>ft of water</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>h-ft2-F/Btu</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>gpm</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>F</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>gpm</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
@@ -2808,7 +2920,7 @@
       <c r="M7" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -2827,64 +2939,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.description.rating_AHRI_551_591.part_load_rating_points</t>
+          <t>description.rating_ahri_551_591.part_load_rating_points</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2952,24 +3064,24 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>unit_power</t>
+          <t>input_power</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
           <t>evaporator_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t>evaporator_liquid_differential_pressure</t>
@@ -2982,22 +3094,22 @@
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
           <t>condenser_liquid_entering_temperature</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>condenser_liquid_leaving_temperature</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
-          <t>condenser_liquid_dfferential_pressure</t>
+          <t>condenser_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="M2" s="4" t="inlineStr">
@@ -3024,42 +3136,42 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t>l/s</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>kPa</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>l/s</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>C</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>gpm</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
@@ -3134,13 +3246,13 @@
       <c r="M7" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3153,64 +3265,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.evaporator_liquid_type.liquid_components</t>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3303,28 +3415,29 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A5" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A6" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A7" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A8" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -3337,64 +3450,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.condenser_liquid_type.liquid_components</t>
+          <t>performance.condenser_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3487,23 +3600,24 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A4" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A5" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A6" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A7" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A8" type="list">
-      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SEA_WATER"</formula1>
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3521,64 +3635,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_cooling</t>
+          <t>performance.performance_map_cooling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3680,7 +3794,7 @@
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
-          <t>net_evaporator_capacity_fraction</t>
+          <t>compressor_sequence_number</t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
@@ -3725,7 +3839,7 @@
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>motor_controller_heat</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4428,7 @@
       <c r="N36" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -4333,64 +4447,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map_standby</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4460,7 +4574,7 @@
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>chiller_environment_dry_bulb_temperature</t>
+          <t>environment_dry_bulb_temperature</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -4490,7 +4604,7 @@
       <c r="B6" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -421,175 +421,185 @@
     </comment>
     <comment ref="B43" authorId="0" shapeId="0">
       <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A44" authorId="0" shapeId="0">
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A45" authorId="0" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 551/591</t>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>AHRI certified reference number</t>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>Year of the AHRI test standard</t>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>Source of this rating data</t>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>Rated net refrigeration capacity</t>
       </text>
     </comment>
-    <comment ref="B49" authorId="0" shapeId="0">
+    <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>Ratio of the net refrigerating capacity to the total input power at the rating conditions</t>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
+    <comment ref="B52" authorId="0" shapeId="0">
       <text>
         <t>Rated part-load efficiency on the basis of weighted operation at various partial load capacities</t>
       </text>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <t>The four measured data points used to calculate the part load rating value</t>
       </text>
     </comment>
-    <comment ref="B53" authorId="0" shapeId="0">
+    <comment ref="B54" authorId="0" shapeId="0">
       <text>
         <t>Evaporator liquid volumetric flow rate at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B54" authorId="0" shapeId="0">
+    <comment ref="B55" authorId="0" shapeId="0">
       <text>
         <t>Liquid temperature at the entry flange of the evaporator at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B55" authorId="0" shapeId="0">
+    <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>Liquid temperature at the exit flange of the evaporator at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B56" authorId="0" shapeId="0">
+    <comment ref="B57" authorId="0" shapeId="0">
       <text>
         <t>Pressure difference across the evaporator at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B57" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B58" authorId="0" shapeId="0">
+    <comment ref="B59" authorId="0" shapeId="0">
       <text>
         <t>Condenser liquid volumetric flow rate at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
+    <comment ref="B60" authorId="0" shapeId="0">
       <text>
         <t>Liquid temperature at the entry flange of the condenser at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
+    <comment ref="B61" authorId="0" shapeId="0">
       <text>
         <t>Liquid temperature at the exit flange of the condenser at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B61" authorId="0" shapeId="0">
+    <comment ref="B62" authorId="0" shapeId="0">
       <text>
         <t>Pressure difference across the condenser at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
+    <comment ref="B63" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer at the full load design rating conditions</t>
       </text>
     </comment>
-    <comment ref="B63" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
+    <comment ref="B64" authorId="0" shapeId="0">
+      <text>
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A66" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
+    <comment ref="A67" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in evaporator</t>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0">
       <text>
         <t>An array of all liquid components within the liquid mixture</t>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
+    <comment ref="A70" authorId="0" shapeId="0">
       <text>
         <t>Type of liquid in condenser</t>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
+    <comment ref="A71" authorId="0" shapeId="0">
       <text>
         <t>An array of all liquid components within the liquid mixture</t>
       </text>
     </comment>
-    <comment ref="B70" authorId="0" shapeId="0">
+    <comment ref="B72" authorId="0" shapeId="0">
       <text>
         <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
-    <comment ref="B71" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment ref="B72" authorId="0" shapeId="0">
+    <comment ref="B74" authorId="0" shapeId="0">
       <text>
         <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B75" authorId="0" shapeId="0">
       <text>
         <t>Type of compressor speed control</t>
       </text>
     </comment>
-    <comment ref="B74" authorId="0" shapeId="0">
+    <comment ref="B76" authorId="0" shapeId="0">
       <text>
         <t>Maximum input power at which the chiller operates reliably and continuously</t>
       </text>
     </comment>
-    <comment ref="B75" authorId="0" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 550/590 or AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
+    <comment ref="B77" authorId="0" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
+      </text>
+    </comment>
+    <comment ref="A78" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment ref="A77" authorId="0" shapeId="0">
+    <comment ref="A79" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
       </text>
@@ -1197,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ77"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,7 +1408,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1956,7 +1966,7 @@
       <c r="A43" s="4" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
         </is>
       </c>
       <c r="C43" s="5" t="n"/>
@@ -1968,36 +1978,32 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_551_591</t>
-        </is>
-      </c>
-      <c r="B44" s="4" t="n"/>
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
+        </is>
+      </c>
       <c r="C44" s="5" t="n"/>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    certified_reference_number</t>
-        </is>
-      </c>
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_551_591</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="n"/>
       <c r="C45" s="5" t="n"/>
       <c r="D45" s="4" t="n"/>
-      <c r="E45" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    test_standard_year</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C46" s="5" t="n"/>
@@ -2012,37 +2018,33 @@
       <c r="A47" s="4" t="n"/>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_source</t>
+          <t xml:space="preserve">    test_standard_year</t>
         </is>
       </c>
       <c r="C47" s="5" t="n"/>
       <c r="D47" s="4" t="n"/>
-      <c r="E47" s="6" t="n"/>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    net_refrigerating_capacity</t>
+          <t xml:space="preserve">    rating_source</t>
         </is>
       </c>
       <c r="C48" s="5" t="n"/>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="E48" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    input_power</t>
+          <t xml:space="preserve">    net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="C49" s="5" t="n"/>
@@ -2061,13 +2063,13 @@
       <c r="A50" s="4" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cop</t>
+          <t xml:space="preserve">    input_power</t>
         </is>
       </c>
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kW</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -2080,7 +2082,7 @@
       <c r="A51" s="4" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    part_load_value</t>
+          <t xml:space="preserve">    cop</t>
         </is>
       </c>
       <c r="C51" s="5" t="n"/>
@@ -2096,50 +2098,50 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    part_load_value</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="n"/>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>description.rating_ahri_551_591.part_load_rating_points</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n"/>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>$part_load_rating_points0</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n"/>
-      <c r="E52" s="6" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n"/>
-      <c r="B53" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="C53" s="5" t="n"/>
-      <c r="D53" s="4" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E53" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C54" s="5" t="n"/>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>l/s</t>
         </is>
       </c>
       <c r="E54" s="6" t="inlineStr">
@@ -2152,7 +2154,7 @@
       <c r="A55" s="4" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="C55" s="5" t="n"/>
@@ -2171,13 +2173,13 @@
       <c r="A56" s="4" t="n"/>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C56" s="5" t="n"/>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E56" s="6" t="inlineStr">
@@ -2190,13 +2192,13 @@
       <c r="A57" s="4" t="n"/>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
+          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C57" s="5" t="n"/>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>m2-K/kW</t>
+          <t>kPa</t>
         </is>
       </c>
       <c r="E57" s="6" t="inlineStr">
@@ -2209,13 +2211,13 @@
       <c r="A58" s="4" t="n"/>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C58" s="5" t="n"/>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>l/s</t>
+          <t>m2-K/kW</t>
         </is>
       </c>
       <c r="E58" s="6" t="inlineStr">
@@ -2228,13 +2230,13 @@
       <c r="A59" s="4" t="n"/>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C59" s="5" t="n"/>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>l/s</t>
         </is>
       </c>
       <c r="E59" s="6" t="inlineStr">
@@ -2247,7 +2249,7 @@
       <c r="A60" s="4" t="n"/>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
         </is>
       </c>
       <c r="C60" s="5" t="n"/>
@@ -2266,13 +2268,13 @@
       <c r="A61" s="4" t="n"/>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
         </is>
       </c>
       <c r="C61" s="5" t="n"/>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>kPa</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E61" s="6" t="inlineStr">
@@ -2285,13 +2287,13 @@
       <c r="A62" s="4" t="n"/>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
+          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
         </is>
       </c>
       <c r="C62" s="5" t="n"/>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>m2-K/kW</t>
+          <t>kPa</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
@@ -2304,11 +2306,15 @@
       <c r="A63" s="4" t="n"/>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C63" s="5" t="n"/>
-      <c r="D63" s="4" t="n"/>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/kW</t>
+        </is>
+      </c>
       <c r="E63" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2316,12 +2322,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="n"/>
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
+        </is>
+      </c>
       <c r="C64" s="5" t="n"/>
       <c r="D64" s="4" t="n"/>
       <c r="E64" s="6" t="inlineStr">
@@ -2331,32 +2337,24 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
-        <is>
-          <t>performance.evaporator_liquid_type</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="n"/>
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
+        </is>
+      </c>
       <c r="C65" s="5" t="n"/>
       <c r="D65" s="4" t="n"/>
-      <c r="E65" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>performance.evaporator_liquid_type.liquid_components</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B66" s="4" t="n"/>
-      <c r="C66" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components</t>
-        </is>
-      </c>
+      <c r="C66" s="5" t="n"/>
       <c r="D66" s="4" t="n"/>
       <c r="E66" s="6" t="inlineStr">
         <is>
@@ -2365,12 +2363,12 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    concentration_type</t>
-        </is>
-      </c>
+      <c r="A67" s="4" t="inlineStr">
+        <is>
+          <t>performance.evaporator_liquid_type</t>
+        </is>
+      </c>
+      <c r="B67" s="4" t="n"/>
       <c r="C67" s="5" t="n"/>
       <c r="D67" s="4" t="n"/>
       <c r="E67" s="6" t="inlineStr">
@@ -2382,11 +2380,15 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>performance.condenser_liquid_type</t>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
         </is>
       </c>
       <c r="B68" s="4" t="n"/>
-      <c r="C68" s="5" t="n"/>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
       <c r="D68" s="4" t="n"/>
       <c r="E68" s="6" t="inlineStr">
         <is>
@@ -2395,17 +2397,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="inlineStr">
-        <is>
-          <t>performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B69" s="4" t="n"/>
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components0</t>
-        </is>
-      </c>
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n"/>
       <c r="D69" s="4" t="n"/>
       <c r="E69" s="6" t="inlineStr">
         <is>
@@ -2414,12 +2412,12 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="n"/>
-      <c r="B70" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    concentration_type</t>
-        </is>
-      </c>
+      <c r="A70" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="B70" s="4" t="n"/>
       <c r="C70" s="5" t="n"/>
       <c r="D70" s="4" t="n"/>
       <c r="E70" s="6" t="inlineStr">
@@ -2429,18 +2427,18 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="n"/>
-      <c r="B71" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C71" s="5" t="n"/>
-      <c r="D71" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
+      <c r="A71" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
+      <c r="D71" s="4" t="n"/>
       <c r="E71" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2451,15 +2449,11 @@
       <c r="A72" s="4" t="n"/>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>condenser_fouling_factor</t>
+          <t xml:space="preserve">    concentration_type</t>
         </is>
       </c>
       <c r="C72" s="5" t="n"/>
-      <c r="D72" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
+      <c r="D72" s="4" t="n"/>
       <c r="E72" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2470,11 +2464,15 @@
       <c r="A73" s="4" t="n"/>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>compressor_speed_control_type</t>
+          <t>evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C73" s="5" t="n"/>
-      <c r="D73" s="4" t="n"/>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>m2-K/W</t>
+        </is>
+      </c>
       <c r="E73" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2485,69 +2483,103 @@
       <c r="A74" s="4" t="n"/>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C74" s="5" t="n"/>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E74" s="6" t="n"/>
+          <t>m2-K/W</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="n"/>
       <c r="B75" s="4" t="inlineStr">
         <is>
+          <t>compressor_speed_control_type</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="inlineStr">
+        <is>
+          <t>maximum_power</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="n"/>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E76" s="6" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="inlineStr">
+        <is>
           <t>cycling_degradation_coefficient</t>
         </is>
       </c>
-      <c r="C75" s="5" t="n"/>
-      <c r="D75" s="4" t="inlineStr">
+      <c r="C77" s="5" t="n"/>
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="inlineStr">
         <is>
           <t>performance.performance_map_cooling</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n"/>
-      <c r="C76" s="5" t="inlineStr">
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="5" t="inlineStr">
         <is>
           <t>$performance_map_cooling</t>
         </is>
       </c>
-      <c r="D76" s="4" t="n"/>
-      <c r="E76" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="4" t="inlineStr">
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>performance.performance_map_standby</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n"/>
-      <c r="C77" s="5" t="inlineStr">
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="5" t="inlineStr">
         <is>
           <t>$performance_map_standby</t>
         </is>
       </c>
-      <c r="D77" s="4" t="n"/>
-      <c r="E77" s="6" t="inlineStr">
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -2570,29 +2602,29 @@
     <dataValidation sqref="C43" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C46" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SI_2015,SI_2015_ADDENDUM_1,SI_2018"</formula1>
+    <dataValidation sqref="C47" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"SI_2015,SI_2015_ADDENDUM_1,SI_2018,SI_2020"</formula1>
     </dataValidation>
-    <dataValidation sqref="C63" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C64" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C67" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C69" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C70" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C72" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C73" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C75" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C32" r:id="rId1"/>
-    <hyperlink ref="C52" r:id="rId2"/>
-    <hyperlink ref="C66" r:id="rId3"/>
-    <hyperlink ref="C69" r:id="rId4"/>
-    <hyperlink ref="C76" r:id="rId5"/>
-    <hyperlink ref="C77" r:id="rId6"/>
+    <hyperlink ref="C53" r:id="rId2"/>
+    <hyperlink ref="C68" r:id="rId3"/>
+    <hyperlink ref="C71" r:id="rId4"/>
+    <hyperlink ref="C78" r:id="rId5"/>
+    <hyperlink ref="C79" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>

--- a/assets/templates/RS0001-template.a205.xlsx
+++ b/assets/templates/RS0001-template.a205.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="RS0001" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="part_load_rating_points" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="part_load_rating_points0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="liquid_components" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="liquid_components0" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="liquid_components" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -361,247 +361,147 @@
     </comment>
     <comment ref="B31" authorId="0" shapeId="0">
       <text>
-        <t>Rated part-load efficiency on the basis of weighted operation at various partial load capacities</t>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
-      <text>
-        <t>The four measured data points used to calculate the part load rating value</t>
-      </text>
-    </comment>
-    <comment ref="B33" authorId="0" shapeId="0">
-      <text>
-        <t>Evaporator liquid volumetric flow rate at the full load design point rating condition</t>
+        <t>The Integrated Part-Load Value efficiency of merit calculated at the standard rating conditions</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
+        <t>The Non-Standard Part-Load Value efficiency of merit calculated at the conditions other than the IPLV.IP conditions</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group containing information relevant to products rated under AHRI 551/591</t>
       </text>
     </comment>
     <comment ref="B34" authorId="0" shapeId="0">
       <text>
-        <t>Liquid temperature at the entry flange of the evaporator at the full load design rating conditions</t>
+        <t>AHRI certified reference number</t>
       </text>
     </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
-        <t>Liquid temperature at the exit flange of the evaporator at the full load design rating conditions</t>
+        <t>Year of the AHRI test standard</t>
       </text>
     </comment>
     <comment ref="B36" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator at the full load design rating conditions</t>
+        <t>Source of this rating data</t>
       </text>
     </comment>
     <comment ref="B37" authorId="0" shapeId="0">
       <text>
-        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer at the full load design rating condition</t>
+        <t>Rated net refrigeration capacity</t>
       </text>
     </comment>
     <comment ref="B38" authorId="0" shapeId="0">
       <text>
-        <t>Condenser liquid volumetric flow rate at the full load design rating conditions</t>
+        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
       </text>
     </comment>
     <comment ref="B39" authorId="0" shapeId="0">
       <text>
-        <t>Liquid temperature at the entry flange of the condenser at the full load design rating conditions</t>
+        <t>Ratio of the net refrigerating capacity to the total input power at the rating conditions</t>
       </text>
     </comment>
     <comment ref="B40" authorId="0" shapeId="0">
       <text>
-        <t>Liquid temperature at the exit flange of the condenser at the full load design rating conditions</t>
+        <t>The Integrated Part-Load Value efficiency of merit calculated at the standard rating conditions</t>
       </text>
     </comment>
     <comment ref="B41" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the condenser at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be recalculated using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
-      <text>
-        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
-      </text>
-    </comment>
-    <comment ref="A45" authorId="0" shapeId="0">
-      <text>
-        <t>Data group containing information relevant to products rated under AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
-      <text>
-        <t>AHRI certified reference number</t>
-      </text>
-    </comment>
-    <comment ref="B47" authorId="0" shapeId="0">
-      <text>
-        <t>Year of the AHRI test standard</t>
+        <t>The Non-Standard Part-Load Value efficiency of merit calculated at the conditions other than the IPLV.SI conditions</t>
+      </text>
+    </comment>
+    <comment ref="A42" authorId="0" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment ref="A43" authorId="0" shapeId="0">
+      <text>
+        <t>Type of liquid in evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0" shapeId="0">
+      <text>
+        <t>Defines whether concentration is defined on a volume or mass basis</t>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0">
+      <text>
+        <t>Type of liquid in condenser</t>
+      </text>
+    </comment>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text>
+        <t>An array of all liquid components within the liquid mixture</t>
       </text>
     </comment>
     <comment ref="B48" authorId="0" shapeId="0">
       <text>
-        <t>Source of this rating data</t>
+        <t>Defines whether concentration is defined on a volume or mass basis</t>
       </text>
     </comment>
     <comment ref="B49" authorId="0" shapeId="0">
       <text>
-        <t>Rated net refrigeration capacity</t>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
     <comment ref="B50" authorId="0" shapeId="0">
       <text>
-        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
+        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
       </text>
     </comment>
     <comment ref="B51" authorId="0" shapeId="0">
       <text>
-        <t>Ratio of the net refrigerating capacity to the total input power at the rating conditions</t>
+        <t>Type of compressor speed control</t>
       </text>
     </comment>
     <comment ref="B52" authorId="0" shapeId="0">
       <text>
-        <t>Rated part-load efficiency on the basis of weighted operation at various partial load capacities</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
     <comment ref="A53" authorId="0" shapeId="0">
       <text>
-        <t>The four measured data points used to calculate the part load rating value</t>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
       </text>
     </comment>
     <comment ref="B54" authorId="0" shapeId="0">
       <text>
-        <t>Evaporator liquid volumetric flow rate at the full load design rating conditions</t>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
     <comment ref="B55" authorId="0" shapeId="0">
       <text>
-        <t>Liquid temperature at the entry flange of the evaporator at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B56" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the evaporator at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B57" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the evaporator at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B58" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B59" authorId="0" shapeId="0">
-      <text>
-        <t>Condenser liquid volumetric flow rate at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B60" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the entry flange of the condenser at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the condenser at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B63" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer at the full load design rating conditions</t>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be recalculated using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="B65" authorId="0" shapeId="0">
-      <text>
-        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
-      </text>
-    </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
-      <text>
-        <t>Data group containing performance information</t>
-      </text>
-    </comment>
-    <comment ref="A67" authorId="0" shapeId="0">
-      <text>
-        <t>Type of liquid in evaporator</t>
-      </text>
-    </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
-      <text>
-        <t>An array of all liquid components within the liquid mixture</t>
-      </text>
-    </comment>
-    <comment ref="B69" authorId="0" shapeId="0">
-      <text>
-        <t>Defines whether concentration is defined on a volume or mass basis</t>
-      </text>
-    </comment>
-    <comment ref="A70" authorId="0" shapeId="0">
-      <text>
-        <t>Type of liquid in condenser</t>
-      </text>
-    </comment>
-    <comment ref="A71" authorId="0" shapeId="0">
-      <text>
-        <t>An array of all liquid components within the liquid mixture</t>
-      </text>
-    </comment>
-    <comment ref="B72" authorId="0" shapeId="0">
-      <text>
-        <t>Defines whether concentration is defined on a volume or mass basis</t>
-      </text>
-    </comment>
-    <comment ref="B73" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
-      </text>
-    </comment>
-    <comment ref="B74" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to heat exchanger fouling layer</t>
-      </text>
-    </comment>
-    <comment ref="B75" authorId="0" shapeId="0">
-      <text>
-        <t>Type of compressor speed control</t>
-      </text>
-    </comment>
-    <comment ref="B76" authorId="0" shapeId="0">
-      <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B77" authorId="0" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
-      </text>
-    </comment>
-    <comment ref="A78" authorId="0" shapeId="0">
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A56" authorId="0" shapeId="0">
       <text>
         <t>Data group describing cooling performance over a range of conditions</t>
       </text>
     </comment>
-    <comment ref="A79" authorId="0" shapeId="0">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <t>Data group describing standby performance</t>
+      </text>
+    </comment>
+    <comment ref="A58" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A59" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -616,67 +516,12 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Percent full load cooling capacity</t>
+        <t>Substance of this component of the mixture</t>
       </text>
     </comment>
     <comment ref="B2" authorId="0" shapeId="0">
       <text>
-        <t>The actual cooling capacity</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <t>Evaporator liquid volumetric flow rate</t>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the entry flange of the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer</t>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
-      <text>
-        <t>Condenser liquid volumetric flow rate</t>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the entry flange of the condenser</t>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the condenser</t>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer</t>
+        <t>Concentration of this component of the mixture</t>
       </text>
     </comment>
   </commentList>
@@ -691,67 +536,12 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Percent full load cooling capacity</t>
+        <t>Substance of this component of the mixture</t>
       </text>
     </comment>
     <comment ref="B2" authorId="0" shapeId="0">
       <text>
-        <t>The actual cooling capacity</t>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <t>Combined power input of all components of the unit, including auxiliary power and excluding integral pumps</t>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <t>Evaporator liquid volumetric flow rate</t>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the entry flange of the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to evaporator heat exchanger fouling layer</t>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
-      <text>
-        <t>Condenser liquid volumetric flow rate</t>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the entry flange of the condenser</t>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
-      <text>
-        <t>Liquid temperature at the exit flange of the condenser</t>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
-      <text>
-        <t>Factor of heat transfer inhibition due to condenser heat exchanger fouling layer</t>
+        <t>Concentration of this component of the mixture</t>
       </text>
     </comment>
   </commentList>
@@ -766,12 +556,67 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Substance of this component of the mixture</t>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <t>Concentration of this component of the mixture</t>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power input</t>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <t>Refrigeration capacity</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser heat rejection</t>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -786,12 +631,22 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Substance of this component of the mixture</t>
+        <t>Data group defining the grid variables for standby performance</t>
       </text>
     </comment>
     <comment ref="B2" authorId="0" shapeId="0">
       <text>
-        <t>Concentration of this component of the mixture</t>
+        <t>Data group defining the lookup variables for standby performance</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air in the environment of the chiller</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Total power consumed in standby operation</t>
       </text>
     </comment>
   </commentList>
@@ -806,12 +661,12 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
       </text>
     </comment>
     <comment ref="A3" authorId="0" shapeId="0">
@@ -826,62 +681,7 @@
     </comment>
     <comment ref="C3" authorId="0" shapeId="0">
       <text>
-        <t>Condenser liquid flow</t>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <t>Entering condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <t>Index indicating the relative capacity order of the compressor speed/stage expressed in order from lowest capacity (starting at 1) to highest capacity</t>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <t>Total power input</t>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <t>Refrigeration capacity</t>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <t>Condenser heat rejection</t>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
-      <text>
-        <t>Entering evaporator liquid temperature</t>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <t>Leaving condenser liquid temperature</t>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
         <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
   </commentList>
@@ -896,22 +696,27 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for standby performance</t>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for standby performance</t>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
       </text>
     </comment>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
-        <t>Dry bulb temperature of the air in the environment of the chiller</t>
+        <t>Condenser liquid flow</t>
       </text>
     </comment>
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
-        <t>Total power consumed in standby operation</t>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -1207,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ79"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,7 +1213,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1649,11 +1454,7 @@
       </c>
       <c r="C25" s="5" t="n"/>
       <c r="D25" s="4" t="n"/>
-      <c r="E25" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n"/>
@@ -1664,11 +1465,7 @@
       </c>
       <c r="C26" s="5" t="n"/>
       <c r="D26" s="4" t="n"/>
-      <c r="E26" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n"/>
@@ -1694,11 +1491,7 @@
           <t>Btu/h</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n"/>
@@ -1713,11 +1506,7 @@
           <t>kW</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n"/>
@@ -1732,17 +1521,13 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    part_load_value</t>
+          <t xml:space="preserve">    iplv_ip</t>
         </is>
       </c>
       <c r="C31" s="5" t="n"/>
@@ -1751,224 +1536,164 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_550_590.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="n"/>
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    nplv_ip</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="E32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_551_591</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
       <c r="C33" s="5" t="n"/>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C34" s="5" t="n"/>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    test_standard_year</t>
         </is>
       </c>
       <c r="C35" s="5" t="n"/>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
+          <t xml:space="preserve">    rating_source</t>
         </is>
       </c>
       <c r="C36" s="5" t="n"/>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
+          <t xml:space="preserve">    net_refrigerating_capacity</t>
         </is>
       </c>
       <c r="C37" s="5" t="n"/>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    input_power</t>
         </is>
       </c>
       <c r="C38" s="5" t="n"/>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="E38" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>kW</t>
+        </is>
+      </c>
+      <c r="E38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n"/>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
+          <t xml:space="preserve">    cop</t>
         </is>
       </c>
       <c r="C39" s="5" t="n"/>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E39" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
+          <t xml:space="preserve">    iplv_si</t>
         </is>
       </c>
       <c r="C40" s="5" t="n"/>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
+          <t xml:space="preserve">    nplv_si</t>
         </is>
       </c>
       <c r="C41" s="5" t="n"/>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="5" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="n"/>
-      <c r="B42" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C42" s="5" t="n"/>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
-      <c r="A43" s="4" t="n"/>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
-        </is>
-      </c>
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>performance.evaporator_liquid_type</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="n"/>
       <c r="C43" s="5" t="n"/>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="6" t="inlineStr">
@@ -1978,34 +1703,46 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    rating_recalculatable_explanation</t>
-        </is>
-      </c>
-      <c r="C44" s="5" t="n"/>
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>performance.evaporator_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components</t>
+        </is>
+      </c>
       <c r="D44" s="4" t="n"/>
-      <c r="E44" s="6" t="n"/>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_551_591</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="n"/>
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    concentration_type</t>
+        </is>
+      </c>
       <c r="C45" s="5" t="n"/>
       <c r="D45" s="4" t="n"/>
-      <c r="E45" s="6" t="n"/>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n"/>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    certified_reference_number</t>
-        </is>
-      </c>
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="n"/>
       <c r="C46" s="5" t="n"/>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="6" t="inlineStr">
@@ -2015,13 +1752,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n"/>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    test_standard_year</t>
-        </is>
-      </c>
-      <c r="C47" s="5" t="n"/>
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>performance.condenser_liquid_type.liquid_components</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>$liquid_components0</t>
+        </is>
+      </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="6" t="inlineStr">
         <is>
@@ -2033,24 +1774,28 @@
       <c r="A48" s="4" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_source</t>
+          <t xml:space="preserve">    concentration_type</t>
         </is>
       </c>
       <c r="C48" s="5" t="n"/>
       <c r="D48" s="4" t="n"/>
-      <c r="E48" s="6" t="n"/>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    net_refrigerating_capacity</t>
+          <t>evaporator_fouling_factor</t>
         </is>
       </c>
       <c r="C49" s="5" t="n"/>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>m2-K/W</t>
         </is>
       </c>
       <c r="E49" s="6" t="inlineStr">
@@ -2063,13 +1808,13 @@
       <c r="A50" s="4" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    input_power</t>
+          <t>condenser_fouling_factor</t>
         </is>
       </c>
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>kW</t>
+          <t>m2-K/W</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -2082,15 +1827,11 @@
       <c r="A51" s="4" t="n"/>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cop</t>
+          <t>compressor_speed_control_type</t>
         </is>
       </c>
       <c r="C51" s="5" t="n"/>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="D51" s="4" t="n"/>
       <c r="E51" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2101,7 +1842,7 @@
       <c r="A52" s="4" t="n"/>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    part_load_value</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C52" s="5" t="n"/>
@@ -2119,15 +1860,11 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>description.rating_ahri_551_591.part_load_rating_points</t>
+          <t>performance.scaling</t>
         </is>
       </c>
       <c r="B53" s="4" t="n"/>
-      <c r="C53" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_rating_points0</t>
-        </is>
-      </c>
+      <c r="C53" s="5" t="n"/>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="6" t="n"/>
     </row>
@@ -2135,496 +1872,142 @@
       <c r="A54" s="4" t="n"/>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_volumetric_flow_rate</t>
+          <t xml:space="preserve">    minimum</t>
         </is>
       </c>
       <c r="C54" s="5" t="n"/>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E54" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="n"/>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_entering_temperature</t>
+          <t xml:space="preserve">    maximum</t>
         </is>
       </c>
       <c r="C55" s="5" t="n"/>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E55" s="6" t="inlineStr">
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="C56" s="5" t="n"/>
-      <c r="D56" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E56" s="6" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_standby</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="n"/>
-      <c r="B57" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="C57" s="5" t="n"/>
-      <c r="D57" s="4" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="E57" s="6" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_evaporator_liqu</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="n"/>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C58" s="5" t="n"/>
-      <c r="D58" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="E58" s="6" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="n"/>
-      <c r="B59" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="C59" s="5" t="n"/>
-      <c r="D59" s="4" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E59" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="n"/>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="C60" s="5" t="n"/>
-      <c r="D60" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E60" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="n"/>
-      <c r="B61" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="C61" s="5" t="n"/>
-      <c r="D61" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E61" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="n"/>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="C62" s="5" t="n"/>
-      <c r="D62" s="4" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="E62" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="n"/>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    full_load_condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C63" s="5" t="n"/>
-      <c r="D63" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="E63" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="n"/>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
-        </is>
-      </c>
-      <c r="C64" s="5" t="n"/>
-      <c r="D64" s="4" t="n"/>
-      <c r="E64" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n"/>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    rating_recalculatable_explanation</t>
-        </is>
-      </c>
-      <c r="C65" s="5" t="n"/>
-      <c r="D65" s="4" t="n"/>
-      <c r="E65" s="6" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="B66" s="4" t="n"/>
-      <c r="C66" s="5" t="n"/>
-      <c r="D66" s="4" t="n"/>
-      <c r="E66" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>performance.evaporator_liquid_type</t>
-        </is>
-      </c>
-      <c r="B67" s="4" t="n"/>
-      <c r="C67" s="5" t="n"/>
-      <c r="D67" s="4" t="n"/>
-      <c r="E67" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4" t="inlineStr">
-        <is>
-          <t>performance.evaporator_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B68" s="4" t="n"/>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components</t>
-        </is>
-      </c>
-      <c r="D68" s="4" t="n"/>
-      <c r="E68" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="n"/>
-      <c r="B69" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    concentration_type</t>
-        </is>
-      </c>
-      <c r="C69" s="5" t="n"/>
-      <c r="D69" s="4" t="n"/>
-      <c r="E69" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4" t="inlineStr">
-        <is>
-          <t>performance.condenser_liquid_type</t>
-        </is>
-      </c>
-      <c r="B70" s="4" t="n"/>
-      <c r="C70" s="5" t="n"/>
-      <c r="D70" s="4" t="n"/>
-      <c r="E70" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="inlineStr">
-        <is>
-          <t>performance.condenser_liquid_type.liquid_components</t>
-        </is>
-      </c>
-      <c r="B71" s="4" t="n"/>
-      <c r="C71" s="5" t="inlineStr">
-        <is>
-          <t>$liquid_components0</t>
-        </is>
-      </c>
-      <c r="D71" s="4" t="n"/>
-      <c r="E71" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="4" t="n"/>
-      <c r="B72" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    concentration_type</t>
-        </is>
-      </c>
-      <c r="C72" s="5" t="n"/>
-      <c r="D72" s="4" t="n"/>
-      <c r="E72" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="n"/>
-      <c r="B73" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C73" s="5" t="n"/>
-      <c r="D73" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
-      <c r="E73" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="4" t="n"/>
-      <c r="B74" s="4" t="inlineStr">
-        <is>
-          <t>condenser_fouling_factor</t>
-        </is>
-      </c>
-      <c r="C74" s="5" t="n"/>
-      <c r="D74" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/W</t>
-        </is>
-      </c>
-      <c r="E74" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="4" t="n"/>
-      <c r="B75" s="4" t="inlineStr">
-        <is>
-          <t>compressor_speed_control_type</t>
-        </is>
-      </c>
-      <c r="C75" s="5" t="n"/>
-      <c r="D75" s="4" t="n"/>
-      <c r="E75" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="n"/>
-      <c r="B76" s="4" t="inlineStr">
-        <is>
-          <t>maximum_power</t>
-        </is>
-      </c>
-      <c r="C76" s="5" t="n"/>
-      <c r="D76" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E76" s="6" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="4" t="n"/>
-      <c r="B77" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C77" s="5" t="n"/>
-      <c r="D77" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E77" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="inlineStr">
-        <is>
-          <t>performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="B78" s="4" t="n"/>
-      <c r="C78" s="5" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="D78" s="4" t="n"/>
-      <c r="E78" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="inlineStr">
-        <is>
-          <t>performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="B79" s="4" t="n"/>
-      <c r="C79" s="5" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="n"/>
-      <c r="E79" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="8">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C23" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"IP_2015,IP_2015_ADDENDUM_1,IP_2018,IP_2020"</formula1>
+    <dataValidation sqref="C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"IP_2015,IP_2015_ADDENDUM_1,IP_2018,IP_2020,IP_2020_ADDENDUM_1,IP_2023"</formula1>
     </dataValidation>
-    <dataValidation sqref="C43" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation sqref="C35" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"SI_2015,SI_2015_ADDENDUM_1,SI_2018,SI_2020,SI_2020_ADDENDUM_1,SI_2023"</formula1>
     </dataValidation>
-    <dataValidation sqref="C47" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SI_2015,SI_2015_ADDENDUM_1,SI_2018,SI_2020"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C64" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C69" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C45" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C72" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C75" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1"/>
-    <hyperlink ref="C53" r:id="rId2"/>
-    <hyperlink ref="C68" r:id="rId3"/>
-    <hyperlink ref="C71" r:id="rId4"/>
-    <hyperlink ref="C78" r:id="rId5"/>
-    <hyperlink ref="C79" r:id="rId6"/>
+    <hyperlink ref="C44" r:id="rId1"/>
+    <hyperlink ref="C47" r:id="rId2"/>
+    <hyperlink ref="C56" r:id="rId3"/>
+    <hyperlink ref="C57" r:id="rId4"/>
+    <hyperlink ref="C58" r:id="rId5"/>
+    <hyperlink ref="C59" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -2632,658 +2015,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13" customWidth="1" style="1" min="6" max="6"/>
-    <col width="13" customWidth="1" style="1" min="7" max="7"/>
-    <col width="13" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13" customWidth="1" style="1" min="9" max="9"/>
-    <col width="13" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13" customWidth="1" style="1" min="12" max="12"/>
-    <col width="13" customWidth="1" style="1" min="13" max="13"/>
-    <col width="13" customWidth="1" style="1" min="14" max="14"/>
-    <col width="13" customWidth="1" style="1" min="15" max="15"/>
-    <col width="13" customWidth="1" style="1" min="16" max="16"/>
-    <col width="13" customWidth="1" style="1" min="17" max="17"/>
-    <col width="13" customWidth="1" style="1" min="18" max="18"/>
-    <col width="13" customWidth="1" style="1" min="19" max="19"/>
-    <col width="13" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-    <col width="13" customWidth="1" style="1" min="27" max="27"/>
-    <col width="13" customWidth="1" style="1" min="28" max="28"/>
-    <col width="13" customWidth="1" style="1" min="29" max="29"/>
-    <col width="13" customWidth="1" style="1" min="30" max="30"/>
-    <col width="13" customWidth="1" style="1" min="31" max="31"/>
-    <col width="13" customWidth="1" style="1" min="32" max="32"/>
-    <col width="13" customWidth="1" style="1" min="33" max="33"/>
-    <col width="13" customWidth="1" style="1" min="34" max="34"/>
-    <col width="13" customWidth="1" style="1" min="35" max="35"/>
-    <col width="13" customWidth="1" style="1" min="36" max="36"/>
-    <col width="13" customWidth="1" style="1" min="37" max="37"/>
-    <col width="13" customWidth="1" style="1" min="38" max="38"/>
-    <col width="13" customWidth="1" style="1" min="39" max="39"/>
-    <col width="13" customWidth="1" style="1" min="40" max="40"/>
-    <col width="13" customWidth="1" style="1" min="41" max="41"/>
-    <col width="13" customWidth="1" style="1" min="42" max="42"/>
-    <col width="13" customWidth="1" style="1" min="43" max="43"/>
-    <col width="13" customWidth="1" style="1" min="44" max="44"/>
-    <col width="13" customWidth="1" style="1" min="45" max="45"/>
-    <col width="13" customWidth="1" style="1" min="46" max="46"/>
-    <col width="13" customWidth="1" style="1" min="47" max="47"/>
-    <col width="13" customWidth="1" style="1" min="48" max="48"/>
-    <col width="13" customWidth="1" style="1" min="49" max="49"/>
-    <col width="13" customWidth="1" style="1" min="50" max="50"/>
-    <col width="13" customWidth="1" style="1" min="51" max="51"/>
-    <col width="13" customWidth="1" style="1" min="52" max="52"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_550_590.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-      <c r="AE1" s="2" t="n"/>
-      <c r="AF1" s="2" t="n"/>
-      <c r="AG1" s="2" t="n"/>
-      <c r="AH1" s="2" t="n"/>
-      <c r="AI1" s="2" t="n"/>
-      <c r="AJ1" s="2" t="n"/>
-      <c r="AK1" s="2" t="n"/>
-      <c r="AL1" s="2" t="n"/>
-      <c r="AM1" s="2" t="n"/>
-      <c r="AN1" s="2" t="n"/>
-      <c r="AO1" s="2" t="n"/>
-      <c r="AP1" s="2" t="n"/>
-      <c r="AQ1" s="2" t="n"/>
-      <c r="AR1" s="2" t="n"/>
-      <c r="AS1" s="2" t="n"/>
-      <c r="AT1" s="2" t="n"/>
-      <c r="AU1" s="2" t="n"/>
-      <c r="AV1" s="2" t="n"/>
-      <c r="AW1" s="2" t="n"/>
-      <c r="AX1" s="2" t="n"/>
-      <c r="AY1" s="2" t="n"/>
-      <c r="AZ1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>percent_full_load_capacity</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>cooling_capacity</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>input_power</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_fouling_factor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>gpm</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>ft of water</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>h-ft2-F/Btu</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13" customWidth="1" style="1" min="2" max="2"/>
-    <col width="13" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13" customWidth="1" style="1" min="6" max="6"/>
-    <col width="13" customWidth="1" style="1" min="7" max="7"/>
-    <col width="13" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13" customWidth="1" style="1" min="9" max="9"/>
-    <col width="13" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13" customWidth="1" style="1" min="12" max="12"/>
-    <col width="13" customWidth="1" style="1" min="13" max="13"/>
-    <col width="13" customWidth="1" style="1" min="14" max="14"/>
-    <col width="13" customWidth="1" style="1" min="15" max="15"/>
-    <col width="13" customWidth="1" style="1" min="16" max="16"/>
-    <col width="13" customWidth="1" style="1" min="17" max="17"/>
-    <col width="13" customWidth="1" style="1" min="18" max="18"/>
-    <col width="13" customWidth="1" style="1" min="19" max="19"/>
-    <col width="13" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-    <col width="13" customWidth="1" style="1" min="27" max="27"/>
-    <col width="13" customWidth="1" style="1" min="28" max="28"/>
-    <col width="13" customWidth="1" style="1" min="29" max="29"/>
-    <col width="13" customWidth="1" style="1" min="30" max="30"/>
-    <col width="13" customWidth="1" style="1" min="31" max="31"/>
-    <col width="13" customWidth="1" style="1" min="32" max="32"/>
-    <col width="13" customWidth="1" style="1" min="33" max="33"/>
-    <col width="13" customWidth="1" style="1" min="34" max="34"/>
-    <col width="13" customWidth="1" style="1" min="35" max="35"/>
-    <col width="13" customWidth="1" style="1" min="36" max="36"/>
-    <col width="13" customWidth="1" style="1" min="37" max="37"/>
-    <col width="13" customWidth="1" style="1" min="38" max="38"/>
-    <col width="13" customWidth="1" style="1" min="39" max="39"/>
-    <col width="13" customWidth="1" style="1" min="40" max="40"/>
-    <col width="13" customWidth="1" style="1" min="41" max="41"/>
-    <col width="13" customWidth="1" style="1" min="42" max="42"/>
-    <col width="13" customWidth="1" style="1" min="43" max="43"/>
-    <col width="13" customWidth="1" style="1" min="44" max="44"/>
-    <col width="13" customWidth="1" style="1" min="45" max="45"/>
-    <col width="13" customWidth="1" style="1" min="46" max="46"/>
-    <col width="13" customWidth="1" style="1" min="47" max="47"/>
-    <col width="13" customWidth="1" style="1" min="48" max="48"/>
-    <col width="13" customWidth="1" style="1" min="49" max="49"/>
-    <col width="13" customWidth="1" style="1" min="50" max="50"/>
-    <col width="13" customWidth="1" style="1" min="51" max="51"/>
-    <col width="13" customWidth="1" style="1" min="52" max="52"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_551_591.part_load_rating_points</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-      <c r="AE1" s="2" t="n"/>
-      <c r="AF1" s="2" t="n"/>
-      <c r="AG1" s="2" t="n"/>
-      <c r="AH1" s="2" t="n"/>
-      <c r="AI1" s="2" t="n"/>
-      <c r="AJ1" s="2" t="n"/>
-      <c r="AK1" s="2" t="n"/>
-      <c r="AL1" s="2" t="n"/>
-      <c r="AM1" s="2" t="n"/>
-      <c r="AN1" s="2" t="n"/>
-      <c r="AO1" s="2" t="n"/>
-      <c r="AP1" s="2" t="n"/>
-      <c r="AQ1" s="2" t="n"/>
-      <c r="AR1" s="2" t="n"/>
-      <c r="AS1" s="2" t="n"/>
-      <c r="AT1" s="2" t="n"/>
-      <c r="AU1" s="2" t="n"/>
-      <c r="AV1" s="2" t="n"/>
-      <c r="AW1" s="2" t="n"/>
-      <c r="AX1" s="2" t="n"/>
-      <c r="AY1" s="2" t="n"/>
-      <c r="AZ1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>percent_full_load_capacity</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>cooling_capacity</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>input_power</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
-        <is>
-          <t>evaporator_fouling_factor</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_volumetric_flow_rate</t>
-        </is>
-      </c>
-      <c r="J2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_entering_temperature</t>
-        </is>
-      </c>
-      <c r="K2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_leaving_temperature</t>
-        </is>
-      </c>
-      <c r="L2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
-        <is>
-          <t>condenser_fouling_factor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>l/s</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>kPa</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>m2-K/kW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="n"/>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3447,19 +2178,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3468,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3632,19 +2363,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3653,7 +2384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3799,9 +2530,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -3846,32 +2574,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -3918,32 +2631,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3959,9 +2657,6 @@
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
@@ -3975,9 +2670,6 @@
       <c r="I6" s="5" t="n"/>
       <c r="J6" s="5" t="n"/>
       <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
@@ -3991,9 +2683,6 @@
       <c r="I7" s="5" t="n"/>
       <c r="J7" s="5" t="n"/>
       <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-      <c r="M7" s="5" t="n"/>
-      <c r="N7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
@@ -4007,9 +2696,6 @@
       <c r="I8" s="5" t="n"/>
       <c r="J8" s="5" t="n"/>
       <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n"/>
@@ -4023,9 +2709,6 @@
       <c r="I9" s="5" t="n"/>
       <c r="J9" s="5" t="n"/>
       <c r="K9" s="5" t="n"/>
-      <c r="L9" s="5" t="n"/>
-      <c r="M9" s="5" t="n"/>
-      <c r="N9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n"/>
@@ -4039,9 +2722,6 @@
       <c r="I10" s="5" t="n"/>
       <c r="J10" s="5" t="n"/>
       <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
@@ -4055,9 +2735,6 @@
       <c r="I11" s="5" t="n"/>
       <c r="J11" s="5" t="n"/>
       <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n"/>
@@ -4071,9 +2748,6 @@
       <c r="I12" s="5" t="n"/>
       <c r="J12" s="5" t="n"/>
       <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n"/>
@@ -4087,9 +2761,6 @@
       <c r="I13" s="5" t="n"/>
       <c r="J13" s="5" t="n"/>
       <c r="K13" s="5" t="n"/>
-      <c r="L13" s="5" t="n"/>
-      <c r="M13" s="5" t="n"/>
-      <c r="N13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n"/>
@@ -4103,9 +2774,6 @@
       <c r="I14" s="5" t="n"/>
       <c r="J14" s="5" t="n"/>
       <c r="K14" s="5" t="n"/>
-      <c r="L14" s="5" t="n"/>
-      <c r="M14" s="5" t="n"/>
-      <c r="N14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n"/>
@@ -4119,9 +2787,6 @@
       <c r="I15" s="5" t="n"/>
       <c r="J15" s="5" t="n"/>
       <c r="K15" s="5" t="n"/>
-      <c r="L15" s="5" t="n"/>
-      <c r="M15" s="5" t="n"/>
-      <c r="N15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n"/>
@@ -4135,9 +2800,6 @@
       <c r="I16" s="5" t="n"/>
       <c r="J16" s="5" t="n"/>
       <c r="K16" s="5" t="n"/>
-      <c r="L16" s="5" t="n"/>
-      <c r="M16" s="5" t="n"/>
-      <c r="N16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n"/>
@@ -4151,9 +2813,6 @@
       <c r="I17" s="5" t="n"/>
       <c r="J17" s="5" t="n"/>
       <c r="K17" s="5" t="n"/>
-      <c r="L17" s="5" t="n"/>
-      <c r="M17" s="5" t="n"/>
-      <c r="N17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n"/>
@@ -4167,9 +2826,6 @@
       <c r="I18" s="5" t="n"/>
       <c r="J18" s="5" t="n"/>
       <c r="K18" s="5" t="n"/>
-      <c r="L18" s="5" t="n"/>
-      <c r="M18" s="5" t="n"/>
-      <c r="N18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n"/>
@@ -4183,9 +2839,6 @@
       <c r="I19" s="5" t="n"/>
       <c r="J19" s="5" t="n"/>
       <c r="K19" s="5" t="n"/>
-      <c r="L19" s="5" t="n"/>
-      <c r="M19" s="5" t="n"/>
-      <c r="N19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="n"/>
@@ -4199,9 +2852,6 @@
       <c r="I20" s="5" t="n"/>
       <c r="J20" s="5" t="n"/>
       <c r="K20" s="5" t="n"/>
-      <c r="L20" s="5" t="n"/>
-      <c r="M20" s="5" t="n"/>
-      <c r="N20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n"/>
@@ -4215,9 +2865,6 @@
       <c r="I21" s="5" t="n"/>
       <c r="J21" s="5" t="n"/>
       <c r="K21" s="5" t="n"/>
-      <c r="L21" s="5" t="n"/>
-      <c r="M21" s="5" t="n"/>
-      <c r="N21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n"/>
@@ -4231,9 +2878,6 @@
       <c r="I22" s="5" t="n"/>
       <c r="J22" s="5" t="n"/>
       <c r="K22" s="5" t="n"/>
-      <c r="L22" s="5" t="n"/>
-      <c r="M22" s="5" t="n"/>
-      <c r="N22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
@@ -4247,9 +2891,6 @@
       <c r="I23" s="5" t="n"/>
       <c r="J23" s="5" t="n"/>
       <c r="K23" s="5" t="n"/>
-      <c r="L23" s="5" t="n"/>
-      <c r="M23" s="5" t="n"/>
-      <c r="N23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n"/>
@@ -4263,9 +2904,6 @@
       <c r="I24" s="5" t="n"/>
       <c r="J24" s="5" t="n"/>
       <c r="K24" s="5" t="n"/>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="5" t="n"/>
-      <c r="N24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n"/>
@@ -4279,9 +2917,6 @@
       <c r="I25" s="5" t="n"/>
       <c r="J25" s="5" t="n"/>
       <c r="K25" s="5" t="n"/>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="5" t="n"/>
-      <c r="N25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n"/>
@@ -4295,9 +2930,6 @@
       <c r="I26" s="5" t="n"/>
       <c r="J26" s="5" t="n"/>
       <c r="K26" s="5" t="n"/>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="5" t="n"/>
-      <c r="N26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n"/>
@@ -4311,9 +2943,6 @@
       <c r="I27" s="5" t="n"/>
       <c r="J27" s="5" t="n"/>
       <c r="K27" s="5" t="n"/>
-      <c r="L27" s="5" t="n"/>
-      <c r="M27" s="5" t="n"/>
-      <c r="N27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n"/>
@@ -4327,9 +2956,6 @@
       <c r="I28" s="5" t="n"/>
       <c r="J28" s="5" t="n"/>
       <c r="K28" s="5" t="n"/>
-      <c r="L28" s="5" t="n"/>
-      <c r="M28" s="5" t="n"/>
-      <c r="N28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n"/>
@@ -4343,9 +2969,6 @@
       <c r="I29" s="5" t="n"/>
       <c r="J29" s="5" t="n"/>
       <c r="K29" s="5" t="n"/>
-      <c r="L29" s="5" t="n"/>
-      <c r="M29" s="5" t="n"/>
-      <c r="N29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n"/>
@@ -4359,9 +2982,6 @@
       <c r="I30" s="5" t="n"/>
       <c r="J30" s="5" t="n"/>
       <c r="K30" s="5" t="n"/>
-      <c r="L30" s="5" t="n"/>
-      <c r="M30" s="5" t="n"/>
-      <c r="N30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
@@ -4375,9 +2995,6 @@
       <c r="I31" s="5" t="n"/>
       <c r="J31" s="5" t="n"/>
       <c r="K31" s="5" t="n"/>
-      <c r="L31" s="5" t="n"/>
-      <c r="M31" s="5" t="n"/>
-      <c r="N31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="n"/>
@@ -4391,9 +3008,6 @@
       <c r="I32" s="5" t="n"/>
       <c r="J32" s="5" t="n"/>
       <c r="K32" s="5" t="n"/>
-      <c r="L32" s="5" t="n"/>
-      <c r="M32" s="5" t="n"/>
-      <c r="N32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n"/>
@@ -4407,9 +3021,6 @@
       <c r="I33" s="5" t="n"/>
       <c r="J33" s="5" t="n"/>
       <c r="K33" s="5" t="n"/>
-      <c r="L33" s="5" t="n"/>
-      <c r="M33" s="5" t="n"/>
-      <c r="N33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n"/>
@@ -4423,9 +3034,6 @@
       <c r="I34" s="5" t="n"/>
       <c r="J34" s="5" t="n"/>
       <c r="K34" s="5" t="n"/>
-      <c r="L34" s="5" t="n"/>
-      <c r="M34" s="5" t="n"/>
-      <c r="N34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
@@ -4439,9 +3047,6 @@
       <c r="I35" s="5" t="n"/>
       <c r="J35" s="5" t="n"/>
       <c r="K35" s="5" t="n"/>
-      <c r="L35" s="5" t="n"/>
-      <c r="M35" s="5" t="n"/>
-      <c r="N35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n"/>
@@ -4455,9 +3060,6 @@
       <c r="I36" s="5" t="n"/>
       <c r="J36" s="5" t="n"/>
       <c r="K36" s="5" t="n"/>
-      <c r="L36" s="5" t="n"/>
-      <c r="M36" s="5" t="n"/>
-      <c r="N36" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4465,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4639,4 +3241,402 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>